--- a/PROYECTO MR/IPS/PPS-MR_HU_GS.RS.003 Formato general para el registro de la solicitud (Julio).xlsx
+++ b/PROYECTO MR/IPS/PPS-MR_HU_GS.RS.003 Formato general para el registro de la solicitud (Julio).xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\Asignados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38791B6-182C-47D6-BC3A-B711055DC85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFD7F46-AB0B-40B8-8D3D-CB6F58D1F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 1.0" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formato 1.0'!$A$46:$CI$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formato 1.0'!$A$46:$CF$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato 1.0'!$A$1:$AO$102</definedName>
     <definedName name="Caracteristica_Evaluar">Hoja1!$A$12:$A$18</definedName>
     <definedName name="Componentes">Hoja1!$A$49:$A$55</definedName>
@@ -2314,7 +2314,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2347,19 +2347,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6E3BC"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFD6E3BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFD6E3BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FFD6E3BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFD6E3BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor rgb="FFD6E3BC"/>
       </patternFill>
     </fill>
@@ -2962,7 +3004,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3037,84 +3079,84 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3429,25 +3471,148 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -19105,11 +19270,11 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:CF110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AI91" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F46" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="BK103" sqref="BK103"/>
+      <selection pane="bottomRight" activeCell="B79" sqref="B79:CF82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20910,38 +21075,38 @@
       <c r="CE46" s="62"/>
       <c r="CF46" s="160"/>
     </row>
-    <row r="47" spans="1:84" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="49" t="s">
+    <row r="47" spans="1:84" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="49" t="s">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="49" t="s">
+      <c r="E47" s="47"/>
+      <c r="F47" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="50"/>
+      <c r="G47" s="47"/>
       <c r="H47" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50">
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47">
         <v>1</v>
       </c>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50">
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47">
         <v>1</v>
       </c>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50">
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47">
         <v>3</v>
       </c>
-      <c r="R47" s="50"/>
+      <c r="R47" s="47"/>
       <c r="S47" s="57" t="s">
         <v>65</v>
       </c>
@@ -21017,44 +21182,44 @@
       <c r="CA47" s="170"/>
       <c r="CB47" s="170"/>
       <c r="CC47" s="170"/>
-      <c r="CD47" s="35" t="s">
+      <c r="CD47" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE47" s="31"/>
-      <c r="CF47" s="36"/>
+      <c r="CF47" s="33"/>
     </row>
-    <row r="48" spans="1:84" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="49" t="s">
+    <row r="48" spans="1:84" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="49" t="s">
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="49" t="s">
+      <c r="E48" s="47"/>
+      <c r="F48" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="50"/>
+      <c r="G48" s="47"/>
       <c r="H48" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50">
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47">
         <v>1</v>
       </c>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50">
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47">
         <v>1</v>
       </c>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50">
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47">
         <v>3</v>
       </c>
-      <c r="R48" s="50"/>
+      <c r="R48" s="47"/>
       <c r="S48" s="57" t="s">
         <v>74</v>
       </c>
@@ -21130,44 +21295,44 @@
       <c r="CA48" s="170"/>
       <c r="CB48" s="170"/>
       <c r="CC48" s="170"/>
-      <c r="CD48" s="35" t="s">
+      <c r="CD48" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE48" s="31"/>
-      <c r="CF48" s="36"/>
+      <c r="CF48" s="33"/>
     </row>
-    <row r="49" spans="2:84" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="49" t="s">
+    <row r="49" spans="2:84" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="49" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="49" t="s">
+      <c r="E49" s="47"/>
+      <c r="F49" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="50"/>
+      <c r="G49" s="47"/>
       <c r="H49" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50">
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47">
         <v>1</v>
       </c>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50">
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47">
         <v>1</v>
       </c>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50">
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47">
         <v>3</v>
       </c>
-      <c r="R49" s="50"/>
+      <c r="R49" s="47"/>
       <c r="S49" s="57" t="s">
         <v>80</v>
       </c>
@@ -21243,44 +21408,44 @@
       <c r="CA49" s="170"/>
       <c r="CB49" s="170"/>
       <c r="CC49" s="170"/>
-      <c r="CD49" s="35" t="s">
+      <c r="CD49" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE49" s="31"/>
-      <c r="CF49" s="36"/>
+      <c r="CF49" s="33"/>
     </row>
-    <row r="50" spans="2:84" ht="84.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="49" t="s">
+    <row r="50" spans="2:84" ht="84.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="49" t="s">
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="49" t="s">
+      <c r="E50" s="47"/>
+      <c r="F50" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50">
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47">
         <v>1</v>
       </c>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50">
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47">
         <v>1</v>
       </c>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50">
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47">
         <v>3</v>
       </c>
-      <c r="R50" s="50"/>
+      <c r="R50" s="47"/>
       <c r="S50" s="57" t="s">
         <v>86</v>
       </c>
@@ -21356,17 +21521,17 @@
       <c r="CA50" s="170"/>
       <c r="CB50" s="170"/>
       <c r="CC50" s="170"/>
-      <c r="CD50" s="35" t="s">
+      <c r="CD50" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE50" s="31"/>
-      <c r="CF50" s="36"/>
+      <c r="CF50" s="33"/>
     </row>
-    <row r="51" spans="2:84" s="30" customFormat="1" ht="95.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="49" t="s">
+    <row r="51" spans="2:84" s="30" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="50"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="51" t="s">
         <v>62</v>
       </c>
@@ -21378,8 +21543,8 @@
       <c r="H51" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
       <c r="K51" s="54">
         <v>1</v>
       </c>
@@ -21469,17 +21634,17 @@
       <c r="CA51" s="170"/>
       <c r="CB51" s="170"/>
       <c r="CC51" s="170"/>
-      <c r="CD51" s="35" t="s">
+      <c r="CD51" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE51" s="31"/>
-      <c r="CF51" s="36"/>
+      <c r="CF51" s="33"/>
     </row>
-    <row r="52" spans="2:84" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="49" t="s">
+    <row r="52" spans="2:84" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="50"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="51" t="s">
         <v>62</v>
       </c>
@@ -21491,8 +21656,8 @@
       <c r="H52" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
       <c r="K52" s="54">
         <v>1</v>
       </c>
@@ -21582,17 +21747,17 @@
       <c r="CA52" s="170"/>
       <c r="CB52" s="170"/>
       <c r="CC52" s="170"/>
-      <c r="CD52" s="35" t="s">
+      <c r="CD52" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE52" s="31"/>
-      <c r="CF52" s="36"/>
+      <c r="CF52" s="33"/>
     </row>
-    <row r="53" spans="2:84" ht="84.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="49" t="s">
+    <row r="53" spans="2:84" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="50"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="51" t="s">
         <v>62</v>
       </c>
@@ -21604,8 +21769,8 @@
       <c r="H53" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
       <c r="K53" s="54">
         <v>1</v>
       </c>
@@ -21695,17 +21860,17 @@
       <c r="CA53" s="170"/>
       <c r="CB53" s="170"/>
       <c r="CC53" s="170"/>
-      <c r="CD53" s="35" t="s">
+      <c r="CD53" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE53" s="31"/>
-      <c r="CF53" s="36"/>
+      <c r="CF53" s="33"/>
     </row>
-    <row r="54" spans="2:84" ht="89.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="49" t="s">
+    <row r="54" spans="2:84" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="50"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="51" t="s">
         <v>62</v>
       </c>
@@ -21717,8 +21882,8 @@
       <c r="H54" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
       <c r="K54" s="54">
         <v>1</v>
       </c>
@@ -21808,17 +21973,17 @@
       <c r="CA54" s="170"/>
       <c r="CB54" s="170"/>
       <c r="CC54" s="170"/>
-      <c r="CD54" s="35" t="s">
+      <c r="CD54" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE54" s="31"/>
-      <c r="CF54" s="36"/>
+      <c r="CF54" s="33"/>
     </row>
-    <row r="55" spans="2:84" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="49" t="s">
+    <row r="55" spans="2:84" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="50"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="51" t="s">
         <v>62</v>
       </c>
@@ -21830,8 +21995,8 @@
       <c r="H55" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
       <c r="K55" s="54">
         <v>1</v>
       </c>
@@ -21921,30 +22086,30 @@
       <c r="CA55" s="170"/>
       <c r="CB55" s="170"/>
       <c r="CC55" s="170"/>
-      <c r="CD55" s="35" t="s">
+      <c r="CD55" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE55" s="31"/>
-      <c r="CF55" s="36"/>
+      <c r="CF55" s="33"/>
     </row>
-    <row r="56" spans="2:84" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="49" t="s">
+    <row r="56" spans="2:84" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="49" t="s">
+      <c r="C56" s="47"/>
+      <c r="D56" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="49" t="s">
+      <c r="E56" s="47"/>
+      <c r="F56" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G56" s="50"/>
+      <c r="G56" s="47"/>
       <c r="H56" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
       <c r="K56" s="54">
         <v>1</v>
       </c>
@@ -22034,30 +22199,30 @@
       <c r="CA56" s="170"/>
       <c r="CB56" s="170"/>
       <c r="CC56" s="170"/>
-      <c r="CD56" s="35" t="s">
+      <c r="CD56" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE56" s="31"/>
-      <c r="CF56" s="36"/>
+      <c r="CF56" s="33"/>
     </row>
-    <row r="57" spans="2:84" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="49" t="s">
+    <row r="57" spans="2:84" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="49" t="s">
+      <c r="C57" s="47"/>
+      <c r="D57" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="50"/>
-      <c r="F57" s="49" t="s">
+      <c r="E57" s="47"/>
+      <c r="F57" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="50"/>
+      <c r="G57" s="47"/>
       <c r="H57" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
       <c r="K57" s="54">
         <v>1</v>
       </c>
@@ -22147,30 +22312,30 @@
       <c r="CA57" s="170"/>
       <c r="CB57" s="170"/>
       <c r="CC57" s="170"/>
-      <c r="CD57" s="35" t="s">
+      <c r="CD57" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE57" s="31"/>
-      <c r="CF57" s="36"/>
+      <c r="CF57" s="33"/>
     </row>
-    <row r="58" spans="2:84" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="49" t="s">
+    <row r="58" spans="2:84" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="49" t="s">
+      <c r="C58" s="47"/>
+      <c r="D58" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="49" t="s">
+      <c r="E58" s="47"/>
+      <c r="F58" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G58" s="50"/>
+      <c r="G58" s="47"/>
       <c r="H58" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
       <c r="K58" s="54">
         <v>1</v>
       </c>
@@ -22260,2723 +22425,2723 @@
       <c r="CA58" s="170"/>
       <c r="CB58" s="170"/>
       <c r="CC58" s="170"/>
-      <c r="CD58" s="35" t="s">
+      <c r="CD58" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE58" s="31"/>
-      <c r="CF58" s="36"/>
+      <c r="CF58" s="33"/>
     </row>
     <row r="59" spans="2:84" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="31" t="s">
+      <c r="C59" s="35"/>
+      <c r="D59" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31" t="s">
+      <c r="E59" s="35"/>
+      <c r="F59" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="35" t="s">
+      <c r="G59" s="35"/>
+      <c r="H59" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32">
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35">
         <v>1</v>
       </c>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32">
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35">
         <v>1</v>
       </c>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32">
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35">
         <v>3</v>
       </c>
-      <c r="R59" s="32"/>
-      <c r="S59" s="33" t="s">
+      <c r="R59" s="35"/>
+      <c r="S59" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="47" t="s">
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="Z59" s="48"/>
-      <c r="AA59" s="48"/>
-      <c r="AB59" s="48"/>
-      <c r="AC59" s="48"/>
-      <c r="AD59" s="48"/>
-      <c r="AE59" s="48"/>
-      <c r="AF59" s="48"/>
-      <c r="AG59" s="48"/>
-      <c r="AH59" s="48"/>
-      <c r="AI59" s="48"/>
-      <c r="AJ59" s="48"/>
-      <c r="AK59" s="48"/>
-      <c r="AL59" s="48"/>
-      <c r="AM59" s="48"/>
-      <c r="AN59" s="48"/>
-      <c r="AO59" s="48"/>
-      <c r="AP59" s="37" t="s">
+      <c r="Z59" s="173"/>
+      <c r="AA59" s="173"/>
+      <c r="AB59" s="173"/>
+      <c r="AC59" s="173"/>
+      <c r="AD59" s="173"/>
+      <c r="AE59" s="173"/>
+      <c r="AF59" s="173"/>
+      <c r="AG59" s="173"/>
+      <c r="AH59" s="173"/>
+      <c r="AI59" s="173"/>
+      <c r="AJ59" s="173"/>
+      <c r="AK59" s="173"/>
+      <c r="AL59" s="173"/>
+      <c r="AM59" s="173"/>
+      <c r="AN59" s="173"/>
+      <c r="AO59" s="173"/>
+      <c r="AP59" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ59" s="38"/>
-      <c r="AR59" s="38"/>
-      <c r="AS59" s="38"/>
-      <c r="AT59" s="38"/>
-      <c r="AU59" s="38"/>
-      <c r="AV59" s="38"/>
-      <c r="AW59" s="39"/>
-      <c r="AX59" s="37" t="s">
+      <c r="AQ59" s="40"/>
+      <c r="AR59" s="40"/>
+      <c r="AS59" s="40"/>
+      <c r="AT59" s="40"/>
+      <c r="AU59" s="40"/>
+      <c r="AV59" s="40"/>
+      <c r="AW59" s="41"/>
+      <c r="AX59" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY59" s="38"/>
-      <c r="AZ59" s="38"/>
-      <c r="BA59" s="38"/>
-      <c r="BB59" s="38"/>
-      <c r="BC59" s="38"/>
-      <c r="BD59" s="39"/>
-      <c r="BE59" s="40" t="s">
+      <c r="AY59" s="40"/>
+      <c r="AZ59" s="40"/>
+      <c r="BA59" s="40"/>
+      <c r="BB59" s="40"/>
+      <c r="BC59" s="40"/>
+      <c r="BD59" s="41"/>
+      <c r="BE59" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="BF59" s="41"/>
-      <c r="BG59" s="41"/>
-      <c r="BH59" s="41"/>
-      <c r="BI59" s="41"/>
-      <c r="BJ59" s="41"/>
-      <c r="BK59" s="41"/>
-      <c r="BL59" s="41"/>
-      <c r="BM59" s="41"/>
-      <c r="BN59" s="42"/>
-      <c r="BO59" s="33" t="s">
+      <c r="BF59" s="43"/>
+      <c r="BG59" s="43"/>
+      <c r="BH59" s="43"/>
+      <c r="BI59" s="43"/>
+      <c r="BJ59" s="43"/>
+      <c r="BK59" s="43"/>
+      <c r="BL59" s="43"/>
+      <c r="BM59" s="43"/>
+      <c r="BN59" s="44"/>
+      <c r="BO59" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="BP59" s="43"/>
-      <c r="BQ59" s="43"/>
-      <c r="BR59" s="43"/>
-      <c r="BS59" s="43"/>
-      <c r="BT59" s="43"/>
-      <c r="BU59" s="43"/>
-      <c r="BV59" s="43"/>
-      <c r="BW59" s="43"/>
-      <c r="BX59" s="43"/>
-      <c r="BY59" s="43"/>
-      <c r="BZ59" s="43"/>
-      <c r="CA59" s="43"/>
-      <c r="CB59" s="43"/>
-      <c r="CC59" s="43"/>
-      <c r="CD59" s="35" t="s">
+      <c r="BP59" s="45"/>
+      <c r="BQ59" s="45"/>
+      <c r="BR59" s="45"/>
+      <c r="BS59" s="45"/>
+      <c r="BT59" s="45"/>
+      <c r="BU59" s="45"/>
+      <c r="BV59" s="45"/>
+      <c r="BW59" s="45"/>
+      <c r="BX59" s="45"/>
+      <c r="BY59" s="45"/>
+      <c r="BZ59" s="45"/>
+      <c r="CA59" s="45"/>
+      <c r="CB59" s="45"/>
+      <c r="CC59" s="45"/>
+      <c r="CD59" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE59" s="31"/>
-      <c r="CF59" s="36"/>
+      <c r="CF59" s="33"/>
     </row>
     <row r="60" spans="2:84" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="31" t="s">
+      <c r="C60" s="35"/>
+      <c r="D60" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31" t="s">
+      <c r="E60" s="35"/>
+      <c r="F60" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="35" t="s">
+      <c r="G60" s="35"/>
+      <c r="H60" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32">
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35">
         <v>1</v>
       </c>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32">
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35">
         <v>1</v>
       </c>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32">
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35">
         <v>3</v>
       </c>
-      <c r="R60" s="32"/>
-      <c r="S60" s="33" t="s">
+      <c r="R60" s="35"/>
+      <c r="S60" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33" t="s">
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="34"/>
-      <c r="AC60" s="34"/>
-      <c r="AD60" s="34"/>
-      <c r="AE60" s="34"/>
-      <c r="AF60" s="34"/>
-      <c r="AG60" s="34"/>
-      <c r="AH60" s="34"/>
-      <c r="AI60" s="34"/>
-      <c r="AJ60" s="34"/>
-      <c r="AK60" s="34"/>
-      <c r="AL60" s="34"/>
-      <c r="AM60" s="34"/>
-      <c r="AN60" s="34"/>
-      <c r="AO60" s="34"/>
-      <c r="AP60" s="37" t="s">
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="38"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="38"/>
+      <c r="AG60" s="38"/>
+      <c r="AH60" s="38"/>
+      <c r="AI60" s="38"/>
+      <c r="AJ60" s="38"/>
+      <c r="AK60" s="38"/>
+      <c r="AL60" s="38"/>
+      <c r="AM60" s="38"/>
+      <c r="AN60" s="38"/>
+      <c r="AO60" s="38"/>
+      <c r="AP60" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ60" s="38"/>
-      <c r="AR60" s="38"/>
-      <c r="AS60" s="38"/>
-      <c r="AT60" s="38"/>
-      <c r="AU60" s="38"/>
-      <c r="AV60" s="38"/>
-      <c r="AW60" s="39"/>
-      <c r="AX60" s="37" t="s">
+      <c r="AQ60" s="40"/>
+      <c r="AR60" s="40"/>
+      <c r="AS60" s="40"/>
+      <c r="AT60" s="40"/>
+      <c r="AU60" s="40"/>
+      <c r="AV60" s="40"/>
+      <c r="AW60" s="41"/>
+      <c r="AX60" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY60" s="38"/>
-      <c r="AZ60" s="38"/>
-      <c r="BA60" s="38"/>
-      <c r="BB60" s="38"/>
-      <c r="BC60" s="38"/>
-      <c r="BD60" s="39"/>
-      <c r="BE60" s="40" t="s">
+      <c r="AY60" s="40"/>
+      <c r="AZ60" s="40"/>
+      <c r="BA60" s="40"/>
+      <c r="BB60" s="40"/>
+      <c r="BC60" s="40"/>
+      <c r="BD60" s="41"/>
+      <c r="BE60" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="BF60" s="41"/>
-      <c r="BG60" s="41"/>
-      <c r="BH60" s="41"/>
-      <c r="BI60" s="41"/>
-      <c r="BJ60" s="41"/>
-      <c r="BK60" s="41"/>
-      <c r="BL60" s="41"/>
-      <c r="BM60" s="41"/>
-      <c r="BN60" s="42"/>
-      <c r="BO60" s="33" t="s">
+      <c r="BF60" s="43"/>
+      <c r="BG60" s="43"/>
+      <c r="BH60" s="43"/>
+      <c r="BI60" s="43"/>
+      <c r="BJ60" s="43"/>
+      <c r="BK60" s="43"/>
+      <c r="BL60" s="43"/>
+      <c r="BM60" s="43"/>
+      <c r="BN60" s="44"/>
+      <c r="BO60" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="BP60" s="43"/>
-      <c r="BQ60" s="43"/>
-      <c r="BR60" s="43"/>
-      <c r="BS60" s="43"/>
-      <c r="BT60" s="43"/>
-      <c r="BU60" s="43"/>
-      <c r="BV60" s="43"/>
-      <c r="BW60" s="43"/>
-      <c r="BX60" s="43"/>
-      <c r="BY60" s="43"/>
-      <c r="BZ60" s="43"/>
-      <c r="CA60" s="43"/>
-      <c r="CB60" s="43"/>
-      <c r="CC60" s="43"/>
-      <c r="CD60" s="35" t="s">
+      <c r="BP60" s="45"/>
+      <c r="BQ60" s="45"/>
+      <c r="BR60" s="45"/>
+      <c r="BS60" s="45"/>
+      <c r="BT60" s="45"/>
+      <c r="BU60" s="45"/>
+      <c r="BV60" s="45"/>
+      <c r="BW60" s="45"/>
+      <c r="BX60" s="45"/>
+      <c r="BY60" s="45"/>
+      <c r="BZ60" s="45"/>
+      <c r="CA60" s="45"/>
+      <c r="CB60" s="45"/>
+      <c r="CC60" s="45"/>
+      <c r="CD60" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE60" s="31"/>
-      <c r="CF60" s="36"/>
+      <c r="CF60" s="33"/>
     </row>
     <row r="61" spans="2:84" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="31" t="s">
+      <c r="C61" s="35"/>
+      <c r="D61" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31" t="s">
+      <c r="E61" s="35"/>
+      <c r="F61" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="32"/>
-      <c r="H61" s="35" t="s">
+      <c r="G61" s="35"/>
+      <c r="H61" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32">
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35">
         <v>1</v>
       </c>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32">
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35">
         <v>1</v>
       </c>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32">
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35">
         <v>3</v>
       </c>
-      <c r="R61" s="32"/>
-      <c r="S61" s="33" t="s">
+      <c r="R61" s="35"/>
+      <c r="S61" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33" t="s">
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
-      <c r="AB61" s="34"/>
-      <c r="AC61" s="34"/>
-      <c r="AD61" s="34"/>
-      <c r="AE61" s="34"/>
-      <c r="AF61" s="34"/>
-      <c r="AG61" s="34"/>
-      <c r="AH61" s="34"/>
-      <c r="AI61" s="34"/>
-      <c r="AJ61" s="34"/>
-      <c r="AK61" s="34"/>
-      <c r="AL61" s="34"/>
-      <c r="AM61" s="34"/>
-      <c r="AN61" s="34"/>
-      <c r="AO61" s="34"/>
-      <c r="AP61" s="37" t="s">
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="38"/>
+      <c r="AI61" s="38"/>
+      <c r="AJ61" s="38"/>
+      <c r="AK61" s="38"/>
+      <c r="AL61" s="38"/>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="38"/>
+      <c r="AO61" s="38"/>
+      <c r="AP61" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ61" s="38"/>
-      <c r="AR61" s="38"/>
-      <c r="AS61" s="38"/>
-      <c r="AT61" s="38"/>
-      <c r="AU61" s="38"/>
-      <c r="AV61" s="38"/>
-      <c r="AW61" s="39"/>
-      <c r="AX61" s="37" t="s">
+      <c r="AQ61" s="40"/>
+      <c r="AR61" s="40"/>
+      <c r="AS61" s="40"/>
+      <c r="AT61" s="40"/>
+      <c r="AU61" s="40"/>
+      <c r="AV61" s="40"/>
+      <c r="AW61" s="41"/>
+      <c r="AX61" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY61" s="38"/>
-      <c r="AZ61" s="38"/>
-      <c r="BA61" s="38"/>
-      <c r="BB61" s="38"/>
-      <c r="BC61" s="38"/>
-      <c r="BD61" s="39"/>
-      <c r="BE61" s="40" t="s">
+      <c r="AY61" s="40"/>
+      <c r="AZ61" s="40"/>
+      <c r="BA61" s="40"/>
+      <c r="BB61" s="40"/>
+      <c r="BC61" s="40"/>
+      <c r="BD61" s="41"/>
+      <c r="BE61" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="BF61" s="41"/>
-      <c r="BG61" s="41"/>
-      <c r="BH61" s="41"/>
-      <c r="BI61" s="41"/>
-      <c r="BJ61" s="41"/>
-      <c r="BK61" s="41"/>
-      <c r="BL61" s="41"/>
-      <c r="BM61" s="41"/>
-      <c r="BN61" s="42"/>
-      <c r="BO61" s="33" t="s">
+      <c r="BF61" s="43"/>
+      <c r="BG61" s="43"/>
+      <c r="BH61" s="43"/>
+      <c r="BI61" s="43"/>
+      <c r="BJ61" s="43"/>
+      <c r="BK61" s="43"/>
+      <c r="BL61" s="43"/>
+      <c r="BM61" s="43"/>
+      <c r="BN61" s="44"/>
+      <c r="BO61" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="BP61" s="43"/>
-      <c r="BQ61" s="43"/>
-      <c r="BR61" s="43"/>
-      <c r="BS61" s="43"/>
-      <c r="BT61" s="43"/>
-      <c r="BU61" s="43"/>
-      <c r="BV61" s="43"/>
-      <c r="BW61" s="43"/>
-      <c r="BX61" s="43"/>
-      <c r="BY61" s="43"/>
-      <c r="BZ61" s="43"/>
-      <c r="CA61" s="43"/>
-      <c r="CB61" s="43"/>
-      <c r="CC61" s="43"/>
-      <c r="CD61" s="35" t="s">
+      <c r="BP61" s="45"/>
+      <c r="BQ61" s="45"/>
+      <c r="BR61" s="45"/>
+      <c r="BS61" s="45"/>
+      <c r="BT61" s="45"/>
+      <c r="BU61" s="45"/>
+      <c r="BV61" s="45"/>
+      <c r="BW61" s="45"/>
+      <c r="BX61" s="45"/>
+      <c r="BY61" s="45"/>
+      <c r="BZ61" s="45"/>
+      <c r="CA61" s="45"/>
+      <c r="CB61" s="45"/>
+      <c r="CC61" s="45"/>
+      <c r="CD61" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE61" s="31"/>
-      <c r="CF61" s="36"/>
+      <c r="CF61" s="33"/>
     </row>
     <row r="62" spans="2:84" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="31" t="s">
+      <c r="C62" s="49"/>
+      <c r="D62" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="31" t="s">
+      <c r="E62" s="49"/>
+      <c r="F62" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G62" s="32"/>
-      <c r="H62" s="35" t="s">
+      <c r="G62" s="49"/>
+      <c r="H62" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32">
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49">
         <v>1</v>
       </c>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32">
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49">
         <v>1</v>
       </c>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32">
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49">
         <v>3</v>
       </c>
-      <c r="R62" s="32"/>
-      <c r="S62" s="33" t="s">
+      <c r="R62" s="49"/>
+      <c r="S62" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33" t="s">
+      <c r="T62" s="179"/>
+      <c r="U62" s="179"/>
+      <c r="V62" s="179"/>
+      <c r="W62" s="179"/>
+      <c r="X62" s="179"/>
+      <c r="Y62" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="34"/>
-      <c r="AF62" s="34"/>
-      <c r="AG62" s="34"/>
-      <c r="AH62" s="34"/>
-      <c r="AI62" s="34"/>
-      <c r="AJ62" s="34"/>
-      <c r="AK62" s="34"/>
-      <c r="AL62" s="34"/>
-      <c r="AM62" s="34"/>
-      <c r="AN62" s="34"/>
-      <c r="AO62" s="34"/>
-      <c r="AP62" s="37" t="s">
+      <c r="Z62" s="180"/>
+      <c r="AA62" s="180"/>
+      <c r="AB62" s="180"/>
+      <c r="AC62" s="180"/>
+      <c r="AD62" s="180"/>
+      <c r="AE62" s="180"/>
+      <c r="AF62" s="180"/>
+      <c r="AG62" s="180"/>
+      <c r="AH62" s="180"/>
+      <c r="AI62" s="180"/>
+      <c r="AJ62" s="180"/>
+      <c r="AK62" s="180"/>
+      <c r="AL62" s="180"/>
+      <c r="AM62" s="180"/>
+      <c r="AN62" s="180"/>
+      <c r="AO62" s="180"/>
+      <c r="AP62" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="AQ62" s="38"/>
-      <c r="AR62" s="38"/>
-      <c r="AS62" s="38"/>
-      <c r="AT62" s="38"/>
-      <c r="AU62" s="38"/>
-      <c r="AV62" s="38"/>
-      <c r="AW62" s="39"/>
-      <c r="AX62" s="37" t="s">
+      <c r="AQ62" s="182"/>
+      <c r="AR62" s="182"/>
+      <c r="AS62" s="182"/>
+      <c r="AT62" s="182"/>
+      <c r="AU62" s="182"/>
+      <c r="AV62" s="182"/>
+      <c r="AW62" s="183"/>
+      <c r="AX62" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="AY62" s="38"/>
-      <c r="AZ62" s="38"/>
-      <c r="BA62" s="38"/>
-      <c r="BB62" s="38"/>
-      <c r="BC62" s="38"/>
-      <c r="BD62" s="39"/>
-      <c r="BE62" s="40" t="s">
+      <c r="AY62" s="182"/>
+      <c r="AZ62" s="182"/>
+      <c r="BA62" s="182"/>
+      <c r="BB62" s="182"/>
+      <c r="BC62" s="182"/>
+      <c r="BD62" s="183"/>
+      <c r="BE62" s="184" t="s">
         <v>138</v>
       </c>
-      <c r="BF62" s="41"/>
-      <c r="BG62" s="41"/>
-      <c r="BH62" s="41"/>
-      <c r="BI62" s="41"/>
-      <c r="BJ62" s="41"/>
-      <c r="BK62" s="41"/>
-      <c r="BL62" s="41"/>
-      <c r="BM62" s="41"/>
-      <c r="BN62" s="42"/>
-      <c r="BO62" s="33" t="s">
+      <c r="BF62" s="185"/>
+      <c r="BG62" s="185"/>
+      <c r="BH62" s="185"/>
+      <c r="BI62" s="185"/>
+      <c r="BJ62" s="185"/>
+      <c r="BK62" s="185"/>
+      <c r="BL62" s="185"/>
+      <c r="BM62" s="185"/>
+      <c r="BN62" s="186"/>
+      <c r="BO62" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="BP62" s="43"/>
-      <c r="BQ62" s="43"/>
-      <c r="BR62" s="43"/>
-      <c r="BS62" s="43"/>
-      <c r="BT62" s="43"/>
-      <c r="BU62" s="43"/>
-      <c r="BV62" s="43"/>
-      <c r="BW62" s="43"/>
-      <c r="BX62" s="43"/>
-      <c r="BY62" s="43"/>
-      <c r="BZ62" s="43"/>
-      <c r="CA62" s="43"/>
-      <c r="CB62" s="43"/>
-      <c r="CC62" s="43"/>
-      <c r="CD62" s="35" t="s">
+      <c r="BP62" s="187"/>
+      <c r="BQ62" s="187"/>
+      <c r="BR62" s="187"/>
+      <c r="BS62" s="187"/>
+      <c r="BT62" s="187"/>
+      <c r="BU62" s="187"/>
+      <c r="BV62" s="187"/>
+      <c r="BW62" s="187"/>
+      <c r="BX62" s="187"/>
+      <c r="BY62" s="187"/>
+      <c r="BZ62" s="187"/>
+      <c r="CA62" s="187"/>
+      <c r="CB62" s="187"/>
+      <c r="CC62" s="187"/>
+      <c r="CD62" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE62" s="31"/>
-      <c r="CF62" s="36"/>
+      <c r="CF62" s="33"/>
     </row>
     <row r="63" spans="2:84" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="31" t="s">
+      <c r="C63" s="35"/>
+      <c r="D63" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="31" t="s">
+      <c r="E63" s="35"/>
+      <c r="F63" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G63" s="32"/>
-      <c r="H63" s="35" t="s">
+      <c r="G63" s="35"/>
+      <c r="H63" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="44">
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="188">
         <v>1</v>
       </c>
-      <c r="L63" s="45"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="44">
+      <c r="L63" s="189"/>
+      <c r="M63" s="190"/>
+      <c r="N63" s="188">
         <v>1</v>
       </c>
-      <c r="O63" s="45"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="44">
+      <c r="O63" s="189"/>
+      <c r="P63" s="190"/>
+      <c r="Q63" s="188">
         <v>3</v>
       </c>
-      <c r="R63" s="46"/>
-      <c r="S63" s="33" t="s">
+      <c r="R63" s="190"/>
+      <c r="S63" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="47" t="s">
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="Z63" s="48"/>
-      <c r="AA63" s="48"/>
-      <c r="AB63" s="48"/>
-      <c r="AC63" s="48"/>
-      <c r="AD63" s="48"/>
-      <c r="AE63" s="48"/>
-      <c r="AF63" s="48"/>
-      <c r="AG63" s="48"/>
-      <c r="AH63" s="48"/>
-      <c r="AI63" s="48"/>
-      <c r="AJ63" s="48"/>
-      <c r="AK63" s="48"/>
-      <c r="AL63" s="48"/>
-      <c r="AM63" s="48"/>
-      <c r="AN63" s="48"/>
-      <c r="AO63" s="48"/>
-      <c r="AP63" s="37" t="s">
+      <c r="Z63" s="173"/>
+      <c r="AA63" s="173"/>
+      <c r="AB63" s="173"/>
+      <c r="AC63" s="173"/>
+      <c r="AD63" s="173"/>
+      <c r="AE63" s="173"/>
+      <c r="AF63" s="173"/>
+      <c r="AG63" s="173"/>
+      <c r="AH63" s="173"/>
+      <c r="AI63" s="173"/>
+      <c r="AJ63" s="173"/>
+      <c r="AK63" s="173"/>
+      <c r="AL63" s="173"/>
+      <c r="AM63" s="173"/>
+      <c r="AN63" s="173"/>
+      <c r="AO63" s="173"/>
+      <c r="AP63" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ63" s="38"/>
-      <c r="AR63" s="38"/>
-      <c r="AS63" s="38"/>
-      <c r="AT63" s="38"/>
-      <c r="AU63" s="38"/>
-      <c r="AV63" s="38"/>
-      <c r="AW63" s="39"/>
-      <c r="AX63" s="37" t="s">
+      <c r="AQ63" s="40"/>
+      <c r="AR63" s="40"/>
+      <c r="AS63" s="40"/>
+      <c r="AT63" s="40"/>
+      <c r="AU63" s="40"/>
+      <c r="AV63" s="40"/>
+      <c r="AW63" s="41"/>
+      <c r="AX63" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY63" s="38"/>
-      <c r="AZ63" s="38"/>
-      <c r="BA63" s="38"/>
-      <c r="BB63" s="38"/>
-      <c r="BC63" s="38"/>
-      <c r="BD63" s="39"/>
-      <c r="BE63" s="40" t="s">
+      <c r="AY63" s="40"/>
+      <c r="AZ63" s="40"/>
+      <c r="BA63" s="40"/>
+      <c r="BB63" s="40"/>
+      <c r="BC63" s="40"/>
+      <c r="BD63" s="41"/>
+      <c r="BE63" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="BF63" s="41"/>
-      <c r="BG63" s="41"/>
-      <c r="BH63" s="41"/>
-      <c r="BI63" s="41"/>
-      <c r="BJ63" s="41"/>
-      <c r="BK63" s="41"/>
-      <c r="BL63" s="41"/>
-      <c r="BM63" s="41"/>
-      <c r="BN63" s="42"/>
-      <c r="BO63" s="33" t="s">
+      <c r="BF63" s="43"/>
+      <c r="BG63" s="43"/>
+      <c r="BH63" s="43"/>
+      <c r="BI63" s="43"/>
+      <c r="BJ63" s="43"/>
+      <c r="BK63" s="43"/>
+      <c r="BL63" s="43"/>
+      <c r="BM63" s="43"/>
+      <c r="BN63" s="44"/>
+      <c r="BO63" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="BP63" s="43"/>
-      <c r="BQ63" s="43"/>
-      <c r="BR63" s="43"/>
-      <c r="BS63" s="43"/>
-      <c r="BT63" s="43"/>
-      <c r="BU63" s="43"/>
-      <c r="BV63" s="43"/>
-      <c r="BW63" s="43"/>
-      <c r="BX63" s="43"/>
-      <c r="BY63" s="43"/>
-      <c r="BZ63" s="43"/>
-      <c r="CA63" s="43"/>
-      <c r="CB63" s="43"/>
-      <c r="CC63" s="43"/>
-      <c r="CD63" s="35" t="s">
+      <c r="BP63" s="45"/>
+      <c r="BQ63" s="45"/>
+      <c r="BR63" s="45"/>
+      <c r="BS63" s="45"/>
+      <c r="BT63" s="45"/>
+      <c r="BU63" s="45"/>
+      <c r="BV63" s="45"/>
+      <c r="BW63" s="45"/>
+      <c r="BX63" s="45"/>
+      <c r="BY63" s="45"/>
+      <c r="BZ63" s="45"/>
+      <c r="CA63" s="45"/>
+      <c r="CB63" s="45"/>
+      <c r="CC63" s="45"/>
+      <c r="CD63" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE63" s="31"/>
-      <c r="CF63" s="36"/>
+      <c r="CF63" s="33"/>
     </row>
     <row r="64" spans="2:84" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="31" t="s">
+      <c r="C64" s="35"/>
+      <c r="D64" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="31" t="s">
+      <c r="E64" s="35"/>
+      <c r="F64" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="32"/>
-      <c r="H64" s="35" t="s">
+      <c r="G64" s="35"/>
+      <c r="H64" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="44">
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="188">
         <v>1</v>
       </c>
-      <c r="L64" s="45"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="44">
+      <c r="L64" s="189"/>
+      <c r="M64" s="190"/>
+      <c r="N64" s="188">
         <v>1</v>
       </c>
-      <c r="O64" s="45"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="44">
+      <c r="O64" s="189"/>
+      <c r="P64" s="190"/>
+      <c r="Q64" s="188">
         <v>3</v>
       </c>
-      <c r="R64" s="46"/>
-      <c r="S64" s="33" t="s">
+      <c r="R64" s="190"/>
+      <c r="S64" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="47" t="s">
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="Z64" s="48"/>
-      <c r="AA64" s="48"/>
-      <c r="AB64" s="48"/>
-      <c r="AC64" s="48"/>
-      <c r="AD64" s="48"/>
-      <c r="AE64" s="48"/>
-      <c r="AF64" s="48"/>
-      <c r="AG64" s="48"/>
-      <c r="AH64" s="48"/>
-      <c r="AI64" s="48"/>
-      <c r="AJ64" s="48"/>
-      <c r="AK64" s="48"/>
-      <c r="AL64" s="48"/>
-      <c r="AM64" s="48"/>
-      <c r="AN64" s="48"/>
-      <c r="AO64" s="48"/>
-      <c r="AP64" s="37" t="s">
+      <c r="Z64" s="173"/>
+      <c r="AA64" s="173"/>
+      <c r="AB64" s="173"/>
+      <c r="AC64" s="173"/>
+      <c r="AD64" s="173"/>
+      <c r="AE64" s="173"/>
+      <c r="AF64" s="173"/>
+      <c r="AG64" s="173"/>
+      <c r="AH64" s="173"/>
+      <c r="AI64" s="173"/>
+      <c r="AJ64" s="173"/>
+      <c r="AK64" s="173"/>
+      <c r="AL64" s="173"/>
+      <c r="AM64" s="173"/>
+      <c r="AN64" s="173"/>
+      <c r="AO64" s="173"/>
+      <c r="AP64" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ64" s="38"/>
-      <c r="AR64" s="38"/>
-      <c r="AS64" s="38"/>
-      <c r="AT64" s="38"/>
-      <c r="AU64" s="38"/>
-      <c r="AV64" s="38"/>
-      <c r="AW64" s="39"/>
-      <c r="AX64" s="37" t="s">
+      <c r="AQ64" s="40"/>
+      <c r="AR64" s="40"/>
+      <c r="AS64" s="40"/>
+      <c r="AT64" s="40"/>
+      <c r="AU64" s="40"/>
+      <c r="AV64" s="40"/>
+      <c r="AW64" s="41"/>
+      <c r="AX64" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY64" s="38"/>
-      <c r="AZ64" s="38"/>
-      <c r="BA64" s="38"/>
-      <c r="BB64" s="38"/>
-      <c r="BC64" s="38"/>
-      <c r="BD64" s="39"/>
-      <c r="BE64" s="40" t="s">
+      <c r="AY64" s="40"/>
+      <c r="AZ64" s="40"/>
+      <c r="BA64" s="40"/>
+      <c r="BB64" s="40"/>
+      <c r="BC64" s="40"/>
+      <c r="BD64" s="41"/>
+      <c r="BE64" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="BF64" s="41"/>
-      <c r="BG64" s="41"/>
-      <c r="BH64" s="41"/>
-      <c r="BI64" s="41"/>
-      <c r="BJ64" s="41"/>
-      <c r="BK64" s="41"/>
-      <c r="BL64" s="41"/>
-      <c r="BM64" s="41"/>
-      <c r="BN64" s="42"/>
-      <c r="BO64" s="33" t="s">
+      <c r="BF64" s="43"/>
+      <c r="BG64" s="43"/>
+      <c r="BH64" s="43"/>
+      <c r="BI64" s="43"/>
+      <c r="BJ64" s="43"/>
+      <c r="BK64" s="43"/>
+      <c r="BL64" s="43"/>
+      <c r="BM64" s="43"/>
+      <c r="BN64" s="44"/>
+      <c r="BO64" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="BP64" s="43"/>
-      <c r="BQ64" s="43"/>
-      <c r="BR64" s="43"/>
-      <c r="BS64" s="43"/>
-      <c r="BT64" s="43"/>
-      <c r="BU64" s="43"/>
-      <c r="BV64" s="43"/>
-      <c r="BW64" s="43"/>
-      <c r="BX64" s="43"/>
-      <c r="BY64" s="43"/>
-      <c r="BZ64" s="43"/>
-      <c r="CA64" s="43"/>
-      <c r="CB64" s="43"/>
-      <c r="CC64" s="43"/>
-      <c r="CD64" s="35" t="s">
+      <c r="BP64" s="45"/>
+      <c r="BQ64" s="45"/>
+      <c r="BR64" s="45"/>
+      <c r="BS64" s="45"/>
+      <c r="BT64" s="45"/>
+      <c r="BU64" s="45"/>
+      <c r="BV64" s="45"/>
+      <c r="BW64" s="45"/>
+      <c r="BX64" s="45"/>
+      <c r="BY64" s="45"/>
+      <c r="BZ64" s="45"/>
+      <c r="CA64" s="45"/>
+      <c r="CB64" s="45"/>
+      <c r="CC64" s="45"/>
+      <c r="CD64" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE64" s="31"/>
-      <c r="CF64" s="36"/>
+      <c r="CF64" s="33"/>
     </row>
     <row r="65" spans="2:84" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="31" t="s">
+      <c r="C65" s="35"/>
+      <c r="D65" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31" t="s">
+      <c r="E65" s="35"/>
+      <c r="F65" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G65" s="32"/>
-      <c r="H65" s="35" t="s">
+      <c r="G65" s="35"/>
+      <c r="H65" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="44">
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="188">
         <v>1</v>
       </c>
-      <c r="L65" s="45"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="44">
+      <c r="L65" s="189"/>
+      <c r="M65" s="190"/>
+      <c r="N65" s="188">
         <v>1</v>
       </c>
-      <c r="O65" s="45"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="44">
+      <c r="O65" s="189"/>
+      <c r="P65" s="190"/>
+      <c r="Q65" s="188">
         <v>3</v>
       </c>
-      <c r="R65" s="46"/>
-      <c r="S65" s="33" t="s">
+      <c r="R65" s="190"/>
+      <c r="S65" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="47" t="s">
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="Z65" s="48"/>
-      <c r="AA65" s="48"/>
-      <c r="AB65" s="48"/>
-      <c r="AC65" s="48"/>
-      <c r="AD65" s="48"/>
-      <c r="AE65" s="48"/>
-      <c r="AF65" s="48"/>
-      <c r="AG65" s="48"/>
-      <c r="AH65" s="48"/>
-      <c r="AI65" s="48"/>
-      <c r="AJ65" s="48"/>
-      <c r="AK65" s="48"/>
-      <c r="AL65" s="48"/>
-      <c r="AM65" s="48"/>
-      <c r="AN65" s="48"/>
-      <c r="AO65" s="48"/>
-      <c r="AP65" s="37" t="s">
+      <c r="Z65" s="173"/>
+      <c r="AA65" s="173"/>
+      <c r="AB65" s="173"/>
+      <c r="AC65" s="173"/>
+      <c r="AD65" s="173"/>
+      <c r="AE65" s="173"/>
+      <c r="AF65" s="173"/>
+      <c r="AG65" s="173"/>
+      <c r="AH65" s="173"/>
+      <c r="AI65" s="173"/>
+      <c r="AJ65" s="173"/>
+      <c r="AK65" s="173"/>
+      <c r="AL65" s="173"/>
+      <c r="AM65" s="173"/>
+      <c r="AN65" s="173"/>
+      <c r="AO65" s="173"/>
+      <c r="AP65" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ65" s="38"/>
-      <c r="AR65" s="38"/>
-      <c r="AS65" s="38"/>
-      <c r="AT65" s="38"/>
-      <c r="AU65" s="38"/>
-      <c r="AV65" s="38"/>
-      <c r="AW65" s="39"/>
-      <c r="AX65" s="37" t="s">
+      <c r="AQ65" s="40"/>
+      <c r="AR65" s="40"/>
+      <c r="AS65" s="40"/>
+      <c r="AT65" s="40"/>
+      <c r="AU65" s="40"/>
+      <c r="AV65" s="40"/>
+      <c r="AW65" s="41"/>
+      <c r="AX65" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY65" s="38"/>
-      <c r="AZ65" s="38"/>
-      <c r="BA65" s="38"/>
-      <c r="BB65" s="38"/>
-      <c r="BC65" s="38"/>
-      <c r="BD65" s="39"/>
-      <c r="BE65" s="40" t="s">
+      <c r="AY65" s="40"/>
+      <c r="AZ65" s="40"/>
+      <c r="BA65" s="40"/>
+      <c r="BB65" s="40"/>
+      <c r="BC65" s="40"/>
+      <c r="BD65" s="41"/>
+      <c r="BE65" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="BF65" s="41"/>
-      <c r="BG65" s="41"/>
-      <c r="BH65" s="41"/>
-      <c r="BI65" s="41"/>
-      <c r="BJ65" s="41"/>
-      <c r="BK65" s="41"/>
-      <c r="BL65" s="41"/>
-      <c r="BM65" s="41"/>
-      <c r="BN65" s="42"/>
-      <c r="BO65" s="33" t="s">
+      <c r="BF65" s="43"/>
+      <c r="BG65" s="43"/>
+      <c r="BH65" s="43"/>
+      <c r="BI65" s="43"/>
+      <c r="BJ65" s="43"/>
+      <c r="BK65" s="43"/>
+      <c r="BL65" s="43"/>
+      <c r="BM65" s="43"/>
+      <c r="BN65" s="44"/>
+      <c r="BO65" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="BP65" s="43"/>
-      <c r="BQ65" s="43"/>
-      <c r="BR65" s="43"/>
-      <c r="BS65" s="43"/>
-      <c r="BT65" s="43"/>
-      <c r="BU65" s="43"/>
-      <c r="BV65" s="43"/>
-      <c r="BW65" s="43"/>
-      <c r="BX65" s="43"/>
-      <c r="BY65" s="43"/>
-      <c r="BZ65" s="43"/>
-      <c r="CA65" s="43"/>
-      <c r="CB65" s="43"/>
-      <c r="CC65" s="43"/>
-      <c r="CD65" s="35" t="s">
+      <c r="BP65" s="45"/>
+      <c r="BQ65" s="45"/>
+      <c r="BR65" s="45"/>
+      <c r="BS65" s="45"/>
+      <c r="BT65" s="45"/>
+      <c r="BU65" s="45"/>
+      <c r="BV65" s="45"/>
+      <c r="BW65" s="45"/>
+      <c r="BX65" s="45"/>
+      <c r="BY65" s="45"/>
+      <c r="BZ65" s="45"/>
+      <c r="CA65" s="45"/>
+      <c r="CB65" s="45"/>
+      <c r="CC65" s="45"/>
+      <c r="CD65" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE65" s="31"/>
-      <c r="CF65" s="36"/>
+      <c r="CF65" s="33"/>
     </row>
     <row r="66" spans="2:84" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="31" t="s">
+      <c r="C66" s="35"/>
+      <c r="D66" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="31" t="s">
+      <c r="E66" s="35"/>
+      <c r="F66" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G66" s="32"/>
-      <c r="H66" s="35" t="s">
+      <c r="G66" s="35"/>
+      <c r="H66" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="44">
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="188">
         <v>1</v>
       </c>
-      <c r="L66" s="45"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="44">
+      <c r="L66" s="189"/>
+      <c r="M66" s="190"/>
+      <c r="N66" s="188">
         <v>1</v>
       </c>
-      <c r="O66" s="45"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="44">
+      <c r="O66" s="189"/>
+      <c r="P66" s="190"/>
+      <c r="Q66" s="188">
         <v>3</v>
       </c>
-      <c r="R66" s="46"/>
-      <c r="S66" s="33" t="s">
+      <c r="R66" s="190"/>
+      <c r="S66" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="33"/>
-      <c r="W66" s="33"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="47" t="s">
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="Z66" s="48"/>
-      <c r="AA66" s="48"/>
-      <c r="AB66" s="48"/>
-      <c r="AC66" s="48"/>
-      <c r="AD66" s="48"/>
-      <c r="AE66" s="48"/>
-      <c r="AF66" s="48"/>
-      <c r="AG66" s="48"/>
-      <c r="AH66" s="48"/>
-      <c r="AI66" s="48"/>
-      <c r="AJ66" s="48"/>
-      <c r="AK66" s="48"/>
-      <c r="AL66" s="48"/>
-      <c r="AM66" s="48"/>
-      <c r="AN66" s="48"/>
-      <c r="AO66" s="48"/>
-      <c r="AP66" s="37" t="s">
+      <c r="Z66" s="173"/>
+      <c r="AA66" s="173"/>
+      <c r="AB66" s="173"/>
+      <c r="AC66" s="173"/>
+      <c r="AD66" s="173"/>
+      <c r="AE66" s="173"/>
+      <c r="AF66" s="173"/>
+      <c r="AG66" s="173"/>
+      <c r="AH66" s="173"/>
+      <c r="AI66" s="173"/>
+      <c r="AJ66" s="173"/>
+      <c r="AK66" s="173"/>
+      <c r="AL66" s="173"/>
+      <c r="AM66" s="173"/>
+      <c r="AN66" s="173"/>
+      <c r="AO66" s="173"/>
+      <c r="AP66" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ66" s="38"/>
-      <c r="AR66" s="38"/>
-      <c r="AS66" s="38"/>
-      <c r="AT66" s="38"/>
-      <c r="AU66" s="38"/>
-      <c r="AV66" s="38"/>
-      <c r="AW66" s="39"/>
-      <c r="AX66" s="37" t="s">
+      <c r="AQ66" s="40"/>
+      <c r="AR66" s="40"/>
+      <c r="AS66" s="40"/>
+      <c r="AT66" s="40"/>
+      <c r="AU66" s="40"/>
+      <c r="AV66" s="40"/>
+      <c r="AW66" s="41"/>
+      <c r="AX66" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY66" s="38"/>
-      <c r="AZ66" s="38"/>
-      <c r="BA66" s="38"/>
-      <c r="BB66" s="38"/>
-      <c r="BC66" s="38"/>
-      <c r="BD66" s="39"/>
-      <c r="BE66" s="40" t="s">
+      <c r="AY66" s="40"/>
+      <c r="AZ66" s="40"/>
+      <c r="BA66" s="40"/>
+      <c r="BB66" s="40"/>
+      <c r="BC66" s="40"/>
+      <c r="BD66" s="41"/>
+      <c r="BE66" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="BF66" s="41"/>
-      <c r="BG66" s="41"/>
-      <c r="BH66" s="41"/>
-      <c r="BI66" s="41"/>
-      <c r="BJ66" s="41"/>
-      <c r="BK66" s="41"/>
-      <c r="BL66" s="41"/>
-      <c r="BM66" s="41"/>
-      <c r="BN66" s="42"/>
-      <c r="BO66" s="33" t="s">
+      <c r="BF66" s="43"/>
+      <c r="BG66" s="43"/>
+      <c r="BH66" s="43"/>
+      <c r="BI66" s="43"/>
+      <c r="BJ66" s="43"/>
+      <c r="BK66" s="43"/>
+      <c r="BL66" s="43"/>
+      <c r="BM66" s="43"/>
+      <c r="BN66" s="44"/>
+      <c r="BO66" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="BP66" s="43"/>
-      <c r="BQ66" s="43"/>
-      <c r="BR66" s="43"/>
-      <c r="BS66" s="43"/>
-      <c r="BT66" s="43"/>
-      <c r="BU66" s="43"/>
-      <c r="BV66" s="43"/>
-      <c r="BW66" s="43"/>
-      <c r="BX66" s="43"/>
-      <c r="BY66" s="43"/>
-      <c r="BZ66" s="43"/>
-      <c r="CA66" s="43"/>
-      <c r="CB66" s="43"/>
-      <c r="CC66" s="43"/>
-      <c r="CD66" s="35" t="s">
+      <c r="BP66" s="45"/>
+      <c r="BQ66" s="45"/>
+      <c r="BR66" s="45"/>
+      <c r="BS66" s="45"/>
+      <c r="BT66" s="45"/>
+      <c r="BU66" s="45"/>
+      <c r="BV66" s="45"/>
+      <c r="BW66" s="45"/>
+      <c r="BX66" s="45"/>
+      <c r="BY66" s="45"/>
+      <c r="BZ66" s="45"/>
+      <c r="CA66" s="45"/>
+      <c r="CB66" s="45"/>
+      <c r="CC66" s="45"/>
+      <c r="CD66" s="32" t="s">
         <v>71</v>
       </c>
       <c r="CE66" s="31"/>
-      <c r="CF66" s="36"/>
+      <c r="CF66" s="33"/>
     </row>
     <row r="67" spans="2:84" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="31" t="s">
+      <c r="C67" s="35"/>
+      <c r="D67" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="32"/>
-      <c r="F67" s="31" t="s">
+      <c r="E67" s="35"/>
+      <c r="F67" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G67" s="32"/>
-      <c r="H67" s="35" t="s">
+      <c r="G67" s="35"/>
+      <c r="H67" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="44">
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="188">
         <v>1</v>
       </c>
-      <c r="L67" s="45"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="44">
+      <c r="L67" s="189"/>
+      <c r="M67" s="190"/>
+      <c r="N67" s="188">
         <v>1</v>
       </c>
-      <c r="O67" s="45"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="44">
+      <c r="O67" s="189"/>
+      <c r="P67" s="190"/>
+      <c r="Q67" s="188">
         <v>3</v>
       </c>
-      <c r="R67" s="46"/>
-      <c r="S67" s="33" t="s">
+      <c r="R67" s="190"/>
+      <c r="S67" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="T67" s="33"/>
-      <c r="U67" s="33"/>
-      <c r="V67" s="33"/>
-      <c r="W67" s="33"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="47" t="s">
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="Z67" s="48"/>
-      <c r="AA67" s="48"/>
-      <c r="AB67" s="48"/>
-      <c r="AC67" s="48"/>
-      <c r="AD67" s="48"/>
-      <c r="AE67" s="48"/>
-      <c r="AF67" s="48"/>
-      <c r="AG67" s="48"/>
-      <c r="AH67" s="48"/>
-      <c r="AI67" s="48"/>
-      <c r="AJ67" s="48"/>
-      <c r="AK67" s="48"/>
-      <c r="AL67" s="48"/>
-      <c r="AM67" s="48"/>
-      <c r="AN67" s="48"/>
-      <c r="AO67" s="48"/>
-      <c r="AP67" s="37" t="s">
+      <c r="Z67" s="173"/>
+      <c r="AA67" s="173"/>
+      <c r="AB67" s="173"/>
+      <c r="AC67" s="173"/>
+      <c r="AD67" s="173"/>
+      <c r="AE67" s="173"/>
+      <c r="AF67" s="173"/>
+      <c r="AG67" s="173"/>
+      <c r="AH67" s="173"/>
+      <c r="AI67" s="173"/>
+      <c r="AJ67" s="173"/>
+      <c r="AK67" s="173"/>
+      <c r="AL67" s="173"/>
+      <c r="AM67" s="173"/>
+      <c r="AN67" s="173"/>
+      <c r="AO67" s="173"/>
+      <c r="AP67" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ67" s="38"/>
-      <c r="AR67" s="38"/>
-      <c r="AS67" s="38"/>
-      <c r="AT67" s="38"/>
-      <c r="AU67" s="38"/>
-      <c r="AV67" s="38"/>
-      <c r="AW67" s="39"/>
-      <c r="AX67" s="37" t="s">
+      <c r="AQ67" s="40"/>
+      <c r="AR67" s="40"/>
+      <c r="AS67" s="40"/>
+      <c r="AT67" s="40"/>
+      <c r="AU67" s="40"/>
+      <c r="AV67" s="40"/>
+      <c r="AW67" s="41"/>
+      <c r="AX67" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY67" s="38"/>
-      <c r="AZ67" s="38"/>
-      <c r="BA67" s="38"/>
-      <c r="BB67" s="38"/>
-      <c r="BC67" s="38"/>
-      <c r="BD67" s="39"/>
-      <c r="BE67" s="40" t="s">
+      <c r="AY67" s="40"/>
+      <c r="AZ67" s="40"/>
+      <c r="BA67" s="40"/>
+      <c r="BB67" s="40"/>
+      <c r="BC67" s="40"/>
+      <c r="BD67" s="41"/>
+      <c r="BE67" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="BF67" s="41"/>
-      <c r="BG67" s="41"/>
-      <c r="BH67" s="41"/>
-      <c r="BI67" s="41"/>
-      <c r="BJ67" s="41"/>
-      <c r="BK67" s="41"/>
-      <c r="BL67" s="41"/>
-      <c r="BM67" s="41"/>
-      <c r="BN67" s="42"/>
-      <c r="BO67" s="33" t="s">
+      <c r="BF67" s="43"/>
+      <c r="BG67" s="43"/>
+      <c r="BH67" s="43"/>
+      <c r="BI67" s="43"/>
+      <c r="BJ67" s="43"/>
+      <c r="BK67" s="43"/>
+      <c r="BL67" s="43"/>
+      <c r="BM67" s="43"/>
+      <c r="BN67" s="44"/>
+      <c r="BO67" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="BP67" s="43"/>
-      <c r="BQ67" s="43"/>
-      <c r="BR67" s="43"/>
-      <c r="BS67" s="43"/>
-      <c r="BT67" s="43"/>
-      <c r="BU67" s="43"/>
-      <c r="BV67" s="43"/>
-      <c r="BW67" s="43"/>
-      <c r="BX67" s="43"/>
-      <c r="BY67" s="43"/>
-      <c r="BZ67" s="43"/>
-      <c r="CA67" s="43"/>
-      <c r="CB67" s="43"/>
-      <c r="CC67" s="43"/>
-      <c r="CD67" s="35" t="s">
+      <c r="BP67" s="45"/>
+      <c r="BQ67" s="45"/>
+      <c r="BR67" s="45"/>
+      <c r="BS67" s="45"/>
+      <c r="BT67" s="45"/>
+      <c r="BU67" s="45"/>
+      <c r="BV67" s="45"/>
+      <c r="BW67" s="45"/>
+      <c r="BX67" s="45"/>
+      <c r="BY67" s="45"/>
+      <c r="BZ67" s="45"/>
+      <c r="CA67" s="45"/>
+      <c r="CB67" s="45"/>
+      <c r="CC67" s="45"/>
+      <c r="CD67" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="CE67" s="31"/>
-      <c r="CF67" s="36"/>
+      <c r="CE67" s="34"/>
+      <c r="CF67" s="194"/>
     </row>
     <row r="68" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="196" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="31" t="s">
+      <c r="C68" s="198"/>
+      <c r="D68" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="31" t="s">
+      <c r="E68" s="198"/>
+      <c r="F68" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="G68" s="32"/>
-      <c r="H68" s="35" t="s">
+      <c r="G68" s="198"/>
+      <c r="H68" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="44">
+      <c r="I68" s="198"/>
+      <c r="J68" s="198"/>
+      <c r="K68" s="199">
         <v>1</v>
       </c>
-      <c r="L68" s="45"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="44">
+      <c r="L68" s="200"/>
+      <c r="M68" s="201"/>
+      <c r="N68" s="199">
         <v>1</v>
       </c>
-      <c r="O68" s="45"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="44">
+      <c r="O68" s="200"/>
+      <c r="P68" s="201"/>
+      <c r="Q68" s="199">
         <v>3</v>
       </c>
-      <c r="R68" s="46"/>
-      <c r="S68" s="33" t="s">
+      <c r="R68" s="201"/>
+      <c r="S68" s="177" t="s">
         <v>150</v>
       </c>
-      <c r="T68" s="33"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="33"/>
-      <c r="W68" s="33"/>
-      <c r="X68" s="33"/>
-      <c r="Y68" s="47" t="s">
+      <c r="T68" s="177"/>
+      <c r="U68" s="177"/>
+      <c r="V68" s="177"/>
+      <c r="W68" s="177"/>
+      <c r="X68" s="177"/>
+      <c r="Y68" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="Z68" s="48"/>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="48"/>
-      <c r="AD68" s="48"/>
-      <c r="AE68" s="48"/>
-      <c r="AF68" s="48"/>
-      <c r="AG68" s="48"/>
-      <c r="AH68" s="48"/>
-      <c r="AI68" s="48"/>
-      <c r="AJ68" s="48"/>
-      <c r="AK68" s="48"/>
-      <c r="AL68" s="48"/>
-      <c r="AM68" s="48"/>
-      <c r="AN68" s="48"/>
-      <c r="AO68" s="48"/>
-      <c r="AP68" s="37" t="s">
+      <c r="Z68" s="203"/>
+      <c r="AA68" s="203"/>
+      <c r="AB68" s="203"/>
+      <c r="AC68" s="203"/>
+      <c r="AD68" s="203"/>
+      <c r="AE68" s="203"/>
+      <c r="AF68" s="203"/>
+      <c r="AG68" s="203"/>
+      <c r="AH68" s="203"/>
+      <c r="AI68" s="203"/>
+      <c r="AJ68" s="203"/>
+      <c r="AK68" s="203"/>
+      <c r="AL68" s="203"/>
+      <c r="AM68" s="203"/>
+      <c r="AN68" s="203"/>
+      <c r="AO68" s="203"/>
+      <c r="AP68" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="AQ68" s="38"/>
-      <c r="AR68" s="38"/>
-      <c r="AS68" s="38"/>
-      <c r="AT68" s="38"/>
-      <c r="AU68" s="38"/>
-      <c r="AV68" s="38"/>
-      <c r="AW68" s="39"/>
-      <c r="AX68" s="37" t="s">
+      <c r="AQ68" s="192"/>
+      <c r="AR68" s="192"/>
+      <c r="AS68" s="192"/>
+      <c r="AT68" s="192"/>
+      <c r="AU68" s="192"/>
+      <c r="AV68" s="192"/>
+      <c r="AW68" s="193"/>
+      <c r="AX68" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="AY68" s="38"/>
-      <c r="AZ68" s="38"/>
-      <c r="BA68" s="38"/>
-      <c r="BB68" s="38"/>
-      <c r="BC68" s="38"/>
-      <c r="BD68" s="39"/>
-      <c r="BE68" s="40" t="s">
+      <c r="AY68" s="192"/>
+      <c r="AZ68" s="192"/>
+      <c r="BA68" s="192"/>
+      <c r="BB68" s="192"/>
+      <c r="BC68" s="192"/>
+      <c r="BD68" s="193"/>
+      <c r="BE68" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="BF68" s="41"/>
-      <c r="BG68" s="41"/>
-      <c r="BH68" s="41"/>
-      <c r="BI68" s="41"/>
-      <c r="BJ68" s="41"/>
-      <c r="BK68" s="41"/>
-      <c r="BL68" s="41"/>
-      <c r="BM68" s="41"/>
-      <c r="BN68" s="42"/>
-      <c r="BO68" s="33" t="s">
+      <c r="BF68" s="175"/>
+      <c r="BG68" s="175"/>
+      <c r="BH68" s="175"/>
+      <c r="BI68" s="175"/>
+      <c r="BJ68" s="175"/>
+      <c r="BK68" s="175"/>
+      <c r="BL68" s="175"/>
+      <c r="BM68" s="175"/>
+      <c r="BN68" s="176"/>
+      <c r="BO68" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="BP68" s="43"/>
-      <c r="BQ68" s="43"/>
-      <c r="BR68" s="43"/>
-      <c r="BS68" s="43"/>
-      <c r="BT68" s="43"/>
-      <c r="BU68" s="43"/>
-      <c r="BV68" s="43"/>
-      <c r="BW68" s="43"/>
-      <c r="BX68" s="43"/>
-      <c r="BY68" s="43"/>
-      <c r="BZ68" s="43"/>
-      <c r="CA68" s="43"/>
-      <c r="CB68" s="43"/>
-      <c r="CC68" s="43"/>
-      <c r="CD68" s="35" t="s">
+      <c r="BP68" s="178"/>
+      <c r="BQ68" s="178"/>
+      <c r="BR68" s="178"/>
+      <c r="BS68" s="178"/>
+      <c r="BT68" s="178"/>
+      <c r="BU68" s="178"/>
+      <c r="BV68" s="178"/>
+      <c r="BW68" s="178"/>
+      <c r="BX68" s="178"/>
+      <c r="BY68" s="178"/>
+      <c r="BZ68" s="178"/>
+      <c r="CA68" s="178"/>
+      <c r="CB68" s="178"/>
+      <c r="CC68" s="178"/>
+      <c r="CD68" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="CE68" s="31"/>
-      <c r="CF68" s="36"/>
+      <c r="CE68" s="196"/>
+      <c r="CF68" s="197"/>
     </row>
     <row r="69" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="31" t="s">
+      <c r="C69" s="198"/>
+      <c r="D69" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="31" t="s">
+      <c r="E69" s="198"/>
+      <c r="F69" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="G69" s="32"/>
-      <c r="H69" s="35" t="s">
+      <c r="G69" s="198"/>
+      <c r="H69" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="44">
+      <c r="I69" s="198"/>
+      <c r="J69" s="198"/>
+      <c r="K69" s="199">
         <v>1</v>
       </c>
-      <c r="L69" s="45"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="44">
+      <c r="L69" s="200"/>
+      <c r="M69" s="201"/>
+      <c r="N69" s="199">
         <v>1</v>
       </c>
-      <c r="O69" s="45"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="44">
+      <c r="O69" s="200"/>
+      <c r="P69" s="201"/>
+      <c r="Q69" s="199">
         <v>3</v>
       </c>
-      <c r="R69" s="46"/>
-      <c r="S69" s="33" t="s">
+      <c r="R69" s="201"/>
+      <c r="S69" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="T69" s="33"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="33"/>
-      <c r="W69" s="33"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="47" t="s">
+      <c r="T69" s="177"/>
+      <c r="U69" s="177"/>
+      <c r="V69" s="177"/>
+      <c r="W69" s="177"/>
+      <c r="X69" s="177"/>
+      <c r="Y69" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="Z69" s="48"/>
-      <c r="AA69" s="48"/>
-      <c r="AB69" s="48"/>
-      <c r="AC69" s="48"/>
-      <c r="AD69" s="48"/>
-      <c r="AE69" s="48"/>
-      <c r="AF69" s="48"/>
-      <c r="AG69" s="48"/>
-      <c r="AH69" s="48"/>
-      <c r="AI69" s="48"/>
-      <c r="AJ69" s="48"/>
-      <c r="AK69" s="48"/>
-      <c r="AL69" s="48"/>
-      <c r="AM69" s="48"/>
-      <c r="AN69" s="48"/>
-      <c r="AO69" s="48"/>
-      <c r="AP69" s="37" t="s">
+      <c r="Z69" s="203"/>
+      <c r="AA69" s="203"/>
+      <c r="AB69" s="203"/>
+      <c r="AC69" s="203"/>
+      <c r="AD69" s="203"/>
+      <c r="AE69" s="203"/>
+      <c r="AF69" s="203"/>
+      <c r="AG69" s="203"/>
+      <c r="AH69" s="203"/>
+      <c r="AI69" s="203"/>
+      <c r="AJ69" s="203"/>
+      <c r="AK69" s="203"/>
+      <c r="AL69" s="203"/>
+      <c r="AM69" s="203"/>
+      <c r="AN69" s="203"/>
+      <c r="AO69" s="203"/>
+      <c r="AP69" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="AQ69" s="38"/>
-      <c r="AR69" s="38"/>
-      <c r="AS69" s="38"/>
-      <c r="AT69" s="38"/>
-      <c r="AU69" s="38"/>
-      <c r="AV69" s="38"/>
-      <c r="AW69" s="39"/>
-      <c r="AX69" s="37" t="s">
+      <c r="AQ69" s="192"/>
+      <c r="AR69" s="192"/>
+      <c r="AS69" s="192"/>
+      <c r="AT69" s="192"/>
+      <c r="AU69" s="192"/>
+      <c r="AV69" s="192"/>
+      <c r="AW69" s="193"/>
+      <c r="AX69" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="AY69" s="38"/>
-      <c r="AZ69" s="38"/>
-      <c r="BA69" s="38"/>
-      <c r="BB69" s="38"/>
-      <c r="BC69" s="38"/>
-      <c r="BD69" s="39"/>
-      <c r="BE69" s="40" t="s">
+      <c r="AY69" s="192"/>
+      <c r="AZ69" s="192"/>
+      <c r="BA69" s="192"/>
+      <c r="BB69" s="192"/>
+      <c r="BC69" s="192"/>
+      <c r="BD69" s="193"/>
+      <c r="BE69" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="BF69" s="41"/>
-      <c r="BG69" s="41"/>
-      <c r="BH69" s="41"/>
-      <c r="BI69" s="41"/>
-      <c r="BJ69" s="41"/>
-      <c r="BK69" s="41"/>
-      <c r="BL69" s="41"/>
-      <c r="BM69" s="41"/>
-      <c r="BN69" s="42"/>
-      <c r="BO69" s="33" t="s">
+      <c r="BF69" s="175"/>
+      <c r="BG69" s="175"/>
+      <c r="BH69" s="175"/>
+      <c r="BI69" s="175"/>
+      <c r="BJ69" s="175"/>
+      <c r="BK69" s="175"/>
+      <c r="BL69" s="175"/>
+      <c r="BM69" s="175"/>
+      <c r="BN69" s="176"/>
+      <c r="BO69" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="BP69" s="43"/>
-      <c r="BQ69" s="43"/>
-      <c r="BR69" s="43"/>
-      <c r="BS69" s="43"/>
-      <c r="BT69" s="43"/>
-      <c r="BU69" s="43"/>
-      <c r="BV69" s="43"/>
-      <c r="BW69" s="43"/>
-      <c r="BX69" s="43"/>
-      <c r="BY69" s="43"/>
-      <c r="BZ69" s="43"/>
-      <c r="CA69" s="43"/>
-      <c r="CB69" s="43"/>
-      <c r="CC69" s="43"/>
-      <c r="CD69" s="35" t="s">
+      <c r="BP69" s="178"/>
+      <c r="BQ69" s="178"/>
+      <c r="BR69" s="178"/>
+      <c r="BS69" s="178"/>
+      <c r="BT69" s="178"/>
+      <c r="BU69" s="178"/>
+      <c r="BV69" s="178"/>
+      <c r="BW69" s="178"/>
+      <c r="BX69" s="178"/>
+      <c r="BY69" s="178"/>
+      <c r="BZ69" s="178"/>
+      <c r="CA69" s="178"/>
+      <c r="CB69" s="178"/>
+      <c r="CC69" s="178"/>
+      <c r="CD69" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="CE69" s="31"/>
-      <c r="CF69" s="36"/>
+      <c r="CE69" s="196"/>
+      <c r="CF69" s="197"/>
     </row>
     <row r="70" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="196" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="31" t="s">
+      <c r="C70" s="198"/>
+      <c r="D70" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="31" t="s">
+      <c r="E70" s="198"/>
+      <c r="F70" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="G70" s="32"/>
-      <c r="H70" s="35" t="s">
+      <c r="G70" s="198"/>
+      <c r="H70" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="44">
+      <c r="I70" s="198"/>
+      <c r="J70" s="198"/>
+      <c r="K70" s="199">
         <v>1</v>
       </c>
-      <c r="L70" s="45"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="44">
+      <c r="L70" s="200"/>
+      <c r="M70" s="201"/>
+      <c r="N70" s="199">
         <v>1</v>
       </c>
-      <c r="O70" s="45"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="44">
+      <c r="O70" s="200"/>
+      <c r="P70" s="201"/>
+      <c r="Q70" s="199">
         <v>3</v>
       </c>
-      <c r="R70" s="46"/>
-      <c r="S70" s="33" t="s">
+      <c r="R70" s="201"/>
+      <c r="S70" s="177" t="s">
         <v>154</v>
       </c>
-      <c r="T70" s="33"/>
-      <c r="U70" s="33"/>
-      <c r="V70" s="33"/>
-      <c r="W70" s="33"/>
-      <c r="X70" s="33"/>
-      <c r="Y70" s="47" t="s">
+      <c r="T70" s="177"/>
+      <c r="U70" s="177"/>
+      <c r="V70" s="177"/>
+      <c r="W70" s="177"/>
+      <c r="X70" s="177"/>
+      <c r="Y70" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="Z70" s="48"/>
-      <c r="AA70" s="48"/>
-      <c r="AB70" s="48"/>
-      <c r="AC70" s="48"/>
-      <c r="AD70" s="48"/>
-      <c r="AE70" s="48"/>
-      <c r="AF70" s="48"/>
-      <c r="AG70" s="48"/>
-      <c r="AH70" s="48"/>
-      <c r="AI70" s="48"/>
-      <c r="AJ70" s="48"/>
-      <c r="AK70" s="48"/>
-      <c r="AL70" s="48"/>
-      <c r="AM70" s="48"/>
-      <c r="AN70" s="48"/>
-      <c r="AO70" s="48"/>
-      <c r="AP70" s="37" t="s">
+      <c r="Z70" s="203"/>
+      <c r="AA70" s="203"/>
+      <c r="AB70" s="203"/>
+      <c r="AC70" s="203"/>
+      <c r="AD70" s="203"/>
+      <c r="AE70" s="203"/>
+      <c r="AF70" s="203"/>
+      <c r="AG70" s="203"/>
+      <c r="AH70" s="203"/>
+      <c r="AI70" s="203"/>
+      <c r="AJ70" s="203"/>
+      <c r="AK70" s="203"/>
+      <c r="AL70" s="203"/>
+      <c r="AM70" s="203"/>
+      <c r="AN70" s="203"/>
+      <c r="AO70" s="203"/>
+      <c r="AP70" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="AQ70" s="38"/>
-      <c r="AR70" s="38"/>
-      <c r="AS70" s="38"/>
-      <c r="AT70" s="38"/>
-      <c r="AU70" s="38"/>
-      <c r="AV70" s="38"/>
-      <c r="AW70" s="39"/>
-      <c r="AX70" s="37" t="s">
+      <c r="AQ70" s="192"/>
+      <c r="AR70" s="192"/>
+      <c r="AS70" s="192"/>
+      <c r="AT70" s="192"/>
+      <c r="AU70" s="192"/>
+      <c r="AV70" s="192"/>
+      <c r="AW70" s="193"/>
+      <c r="AX70" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="AY70" s="38"/>
-      <c r="AZ70" s="38"/>
-      <c r="BA70" s="38"/>
-      <c r="BB70" s="38"/>
-      <c r="BC70" s="38"/>
-      <c r="BD70" s="39"/>
-      <c r="BE70" s="40" t="s">
+      <c r="AY70" s="192"/>
+      <c r="AZ70" s="192"/>
+      <c r="BA70" s="192"/>
+      <c r="BB70" s="192"/>
+      <c r="BC70" s="192"/>
+      <c r="BD70" s="193"/>
+      <c r="BE70" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="BF70" s="41"/>
-      <c r="BG70" s="41"/>
-      <c r="BH70" s="41"/>
-      <c r="BI70" s="41"/>
-      <c r="BJ70" s="41"/>
-      <c r="BK70" s="41"/>
-      <c r="BL70" s="41"/>
-      <c r="BM70" s="41"/>
-      <c r="BN70" s="42"/>
-      <c r="BO70" s="33" t="s">
+      <c r="BF70" s="175"/>
+      <c r="BG70" s="175"/>
+      <c r="BH70" s="175"/>
+      <c r="BI70" s="175"/>
+      <c r="BJ70" s="175"/>
+      <c r="BK70" s="175"/>
+      <c r="BL70" s="175"/>
+      <c r="BM70" s="175"/>
+      <c r="BN70" s="176"/>
+      <c r="BO70" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="BP70" s="43"/>
-      <c r="BQ70" s="43"/>
-      <c r="BR70" s="43"/>
-      <c r="BS70" s="43"/>
-      <c r="BT70" s="43"/>
-      <c r="BU70" s="43"/>
-      <c r="BV70" s="43"/>
-      <c r="BW70" s="43"/>
-      <c r="BX70" s="43"/>
-      <c r="BY70" s="43"/>
-      <c r="BZ70" s="43"/>
-      <c r="CA70" s="43"/>
-      <c r="CB70" s="43"/>
-      <c r="CC70" s="43"/>
-      <c r="CD70" s="35" t="s">
+      <c r="BP70" s="178"/>
+      <c r="BQ70" s="178"/>
+      <c r="BR70" s="178"/>
+      <c r="BS70" s="178"/>
+      <c r="BT70" s="178"/>
+      <c r="BU70" s="178"/>
+      <c r="BV70" s="178"/>
+      <c r="BW70" s="178"/>
+      <c r="BX70" s="178"/>
+      <c r="BY70" s="178"/>
+      <c r="BZ70" s="178"/>
+      <c r="CA70" s="178"/>
+      <c r="CB70" s="178"/>
+      <c r="CC70" s="178"/>
+      <c r="CD70" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="CE70" s="31"/>
-      <c r="CF70" s="36"/>
+      <c r="CE70" s="196"/>
+      <c r="CF70" s="197"/>
     </row>
     <row r="71" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="31" t="s">
+      <c r="C71" s="35"/>
+      <c r="D71" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="31" t="s">
+      <c r="E71" s="35"/>
+      <c r="F71" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G71" s="32"/>
-      <c r="H71" s="35" t="s">
+      <c r="G71" s="35"/>
+      <c r="H71" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32">
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35">
         <v>1</v>
       </c>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32">
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35">
         <v>1</v>
       </c>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32">
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35">
         <v>3</v>
       </c>
-      <c r="R71" s="32"/>
-      <c r="S71" s="33" t="s">
+      <c r="R71" s="35"/>
+      <c r="S71" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="T71" s="33"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="33"/>
-      <c r="W71" s="33"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="47" t="s">
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="Z71" s="48"/>
-      <c r="AA71" s="48"/>
-      <c r="AB71" s="48"/>
-      <c r="AC71" s="48"/>
-      <c r="AD71" s="48"/>
-      <c r="AE71" s="48"/>
-      <c r="AF71" s="48"/>
-      <c r="AG71" s="48"/>
-      <c r="AH71" s="48"/>
-      <c r="AI71" s="48"/>
-      <c r="AJ71" s="48"/>
-      <c r="AK71" s="48"/>
-      <c r="AL71" s="48"/>
-      <c r="AM71" s="48"/>
-      <c r="AN71" s="48"/>
-      <c r="AO71" s="48"/>
-      <c r="AP71" s="37" t="s">
+      <c r="Z71" s="173"/>
+      <c r="AA71" s="173"/>
+      <c r="AB71" s="173"/>
+      <c r="AC71" s="173"/>
+      <c r="AD71" s="173"/>
+      <c r="AE71" s="173"/>
+      <c r="AF71" s="173"/>
+      <c r="AG71" s="173"/>
+      <c r="AH71" s="173"/>
+      <c r="AI71" s="173"/>
+      <c r="AJ71" s="173"/>
+      <c r="AK71" s="173"/>
+      <c r="AL71" s="173"/>
+      <c r="AM71" s="173"/>
+      <c r="AN71" s="173"/>
+      <c r="AO71" s="173"/>
+      <c r="AP71" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ71" s="38"/>
-      <c r="AR71" s="38"/>
-      <c r="AS71" s="38"/>
-      <c r="AT71" s="38"/>
-      <c r="AU71" s="38"/>
-      <c r="AV71" s="38"/>
-      <c r="AW71" s="39"/>
-      <c r="AX71" s="37" t="s">
+      <c r="AQ71" s="40"/>
+      <c r="AR71" s="40"/>
+      <c r="AS71" s="40"/>
+      <c r="AT71" s="40"/>
+      <c r="AU71" s="40"/>
+      <c r="AV71" s="40"/>
+      <c r="AW71" s="41"/>
+      <c r="AX71" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY71" s="38"/>
-      <c r="AZ71" s="38"/>
-      <c r="BA71" s="38"/>
-      <c r="BB71" s="38"/>
-      <c r="BC71" s="38"/>
-      <c r="BD71" s="39"/>
-      <c r="BE71" s="40" t="s">
+      <c r="AY71" s="40"/>
+      <c r="AZ71" s="40"/>
+      <c r="BA71" s="40"/>
+      <c r="BB71" s="40"/>
+      <c r="BC71" s="40"/>
+      <c r="BD71" s="41"/>
+      <c r="BE71" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="BF71" s="41"/>
-      <c r="BG71" s="41"/>
-      <c r="BH71" s="41"/>
-      <c r="BI71" s="41"/>
-      <c r="BJ71" s="41"/>
-      <c r="BK71" s="41"/>
-      <c r="BL71" s="41"/>
-      <c r="BM71" s="41"/>
-      <c r="BN71" s="42"/>
-      <c r="BO71" s="33" t="s">
+      <c r="BF71" s="43"/>
+      <c r="BG71" s="43"/>
+      <c r="BH71" s="43"/>
+      <c r="BI71" s="43"/>
+      <c r="BJ71" s="43"/>
+      <c r="BK71" s="43"/>
+      <c r="BL71" s="43"/>
+      <c r="BM71" s="43"/>
+      <c r="BN71" s="44"/>
+      <c r="BO71" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="BP71" s="43"/>
-      <c r="BQ71" s="43"/>
-      <c r="BR71" s="43"/>
-      <c r="BS71" s="43"/>
-      <c r="BT71" s="43"/>
-      <c r="BU71" s="43"/>
-      <c r="BV71" s="43"/>
-      <c r="BW71" s="43"/>
-      <c r="BX71" s="43"/>
-      <c r="BY71" s="43"/>
-      <c r="BZ71" s="43"/>
-      <c r="CA71" s="43"/>
-      <c r="CB71" s="43"/>
-      <c r="CC71" s="43"/>
-      <c r="CD71" s="35" t="s">
+      <c r="BP71" s="45"/>
+      <c r="BQ71" s="45"/>
+      <c r="BR71" s="45"/>
+      <c r="BS71" s="45"/>
+      <c r="BT71" s="45"/>
+      <c r="BU71" s="45"/>
+      <c r="BV71" s="45"/>
+      <c r="BW71" s="45"/>
+      <c r="BX71" s="45"/>
+      <c r="BY71" s="45"/>
+      <c r="BZ71" s="45"/>
+      <c r="CA71" s="45"/>
+      <c r="CB71" s="45"/>
+      <c r="CC71" s="45"/>
+      <c r="CD71" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="CE71" s="31"/>
-      <c r="CF71" s="36"/>
+      <c r="CE71" s="34"/>
+      <c r="CF71" s="194"/>
     </row>
     <row r="72" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="31" t="s">
+      <c r="C72" s="35"/>
+      <c r="D72" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="32"/>
-      <c r="F72" s="31" t="s">
+      <c r="E72" s="35"/>
+      <c r="F72" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G72" s="32"/>
-      <c r="H72" s="35" t="s">
+      <c r="G72" s="35"/>
+      <c r="H72" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32">
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35">
         <v>1</v>
       </c>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32">
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35">
         <v>1</v>
       </c>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32">
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35">
         <v>3</v>
       </c>
-      <c r="R72" s="32"/>
-      <c r="S72" s="33" t="s">
+      <c r="R72" s="35"/>
+      <c r="S72" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="T72" s="33"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="33"/>
-      <c r="W72" s="33"/>
-      <c r="X72" s="33"/>
-      <c r="Y72" s="33" t="s">
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
-      <c r="AB72" s="34"/>
-      <c r="AC72" s="34"/>
-      <c r="AD72" s="34"/>
-      <c r="AE72" s="34"/>
-      <c r="AF72" s="34"/>
-      <c r="AG72" s="34"/>
-      <c r="AH72" s="34"/>
-      <c r="AI72" s="34"/>
-      <c r="AJ72" s="34"/>
-      <c r="AK72" s="34"/>
-      <c r="AL72" s="34"/>
-      <c r="AM72" s="34"/>
-      <c r="AN72" s="34"/>
-      <c r="AO72" s="34"/>
-      <c r="AP72" s="37" t="s">
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="38"/>
+      <c r="AL72" s="38"/>
+      <c r="AM72" s="38"/>
+      <c r="AN72" s="38"/>
+      <c r="AO72" s="38"/>
+      <c r="AP72" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ72" s="38"/>
-      <c r="AR72" s="38"/>
-      <c r="AS72" s="38"/>
-      <c r="AT72" s="38"/>
-      <c r="AU72" s="38"/>
-      <c r="AV72" s="38"/>
-      <c r="AW72" s="39"/>
-      <c r="AX72" s="37" t="s">
+      <c r="AQ72" s="40"/>
+      <c r="AR72" s="40"/>
+      <c r="AS72" s="40"/>
+      <c r="AT72" s="40"/>
+      <c r="AU72" s="40"/>
+      <c r="AV72" s="40"/>
+      <c r="AW72" s="41"/>
+      <c r="AX72" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY72" s="38"/>
-      <c r="AZ72" s="38"/>
-      <c r="BA72" s="38"/>
-      <c r="BB72" s="38"/>
-      <c r="BC72" s="38"/>
-      <c r="BD72" s="39"/>
-      <c r="BE72" s="40" t="s">
+      <c r="AY72" s="40"/>
+      <c r="AZ72" s="40"/>
+      <c r="BA72" s="40"/>
+      <c r="BB72" s="40"/>
+      <c r="BC72" s="40"/>
+      <c r="BD72" s="41"/>
+      <c r="BE72" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="BF72" s="41"/>
-      <c r="BG72" s="41"/>
-      <c r="BH72" s="41"/>
-      <c r="BI72" s="41"/>
-      <c r="BJ72" s="41"/>
-      <c r="BK72" s="41"/>
-      <c r="BL72" s="41"/>
-      <c r="BM72" s="41"/>
-      <c r="BN72" s="42"/>
-      <c r="BO72" s="33" t="s">
+      <c r="BF72" s="43"/>
+      <c r="BG72" s="43"/>
+      <c r="BH72" s="43"/>
+      <c r="BI72" s="43"/>
+      <c r="BJ72" s="43"/>
+      <c r="BK72" s="43"/>
+      <c r="BL72" s="43"/>
+      <c r="BM72" s="43"/>
+      <c r="BN72" s="44"/>
+      <c r="BO72" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="BP72" s="43"/>
-      <c r="BQ72" s="43"/>
-      <c r="BR72" s="43"/>
-      <c r="BS72" s="43"/>
-      <c r="BT72" s="43"/>
-      <c r="BU72" s="43"/>
-      <c r="BV72" s="43"/>
-      <c r="BW72" s="43"/>
-      <c r="BX72" s="43"/>
-      <c r="BY72" s="43"/>
-      <c r="BZ72" s="43"/>
-      <c r="CA72" s="43"/>
-      <c r="CB72" s="43"/>
-      <c r="CC72" s="43"/>
-      <c r="CD72" s="35" t="s">
+      <c r="BP72" s="45"/>
+      <c r="BQ72" s="45"/>
+      <c r="BR72" s="45"/>
+      <c r="BS72" s="45"/>
+      <c r="BT72" s="45"/>
+      <c r="BU72" s="45"/>
+      <c r="BV72" s="45"/>
+      <c r="BW72" s="45"/>
+      <c r="BX72" s="45"/>
+      <c r="BY72" s="45"/>
+      <c r="BZ72" s="45"/>
+      <c r="CA72" s="45"/>
+      <c r="CB72" s="45"/>
+      <c r="CC72" s="45"/>
+      <c r="CD72" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="CE72" s="31"/>
-      <c r="CF72" s="36"/>
+      <c r="CE72" s="34"/>
+      <c r="CF72" s="194"/>
     </row>
     <row r="73" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="31" t="s">
+      <c r="C73" s="35"/>
+      <c r="D73" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="31" t="s">
+      <c r="E73" s="35"/>
+      <c r="F73" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G73" s="32"/>
-      <c r="H73" s="35" t="s">
+      <c r="G73" s="35"/>
+      <c r="H73" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32">
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35">
         <v>1</v>
       </c>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32">
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35">
         <v>1</v>
       </c>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32">
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35">
         <v>3</v>
       </c>
-      <c r="R73" s="32"/>
-      <c r="S73" s="33" t="s">
+      <c r="R73" s="35"/>
+      <c r="S73" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="T73" s="33"/>
-      <c r="U73" s="33"/>
-      <c r="V73" s="33"/>
-      <c r="W73" s="33"/>
-      <c r="X73" s="33"/>
-      <c r="Y73" s="33" t="s">
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="34"/>
-      <c r="AC73" s="34"/>
-      <c r="AD73" s="34"/>
-      <c r="AE73" s="34"/>
-      <c r="AF73" s="34"/>
-      <c r="AG73" s="34"/>
-      <c r="AH73" s="34"/>
-      <c r="AI73" s="34"/>
-      <c r="AJ73" s="34"/>
-      <c r="AK73" s="34"/>
-      <c r="AL73" s="34"/>
-      <c r="AM73" s="34"/>
-      <c r="AN73" s="34"/>
-      <c r="AO73" s="34"/>
-      <c r="AP73" s="37" t="s">
+      <c r="Z73" s="38"/>
+      <c r="AA73" s="38"/>
+      <c r="AB73" s="38"/>
+      <c r="AC73" s="38"/>
+      <c r="AD73" s="38"/>
+      <c r="AE73" s="38"/>
+      <c r="AF73" s="38"/>
+      <c r="AG73" s="38"/>
+      <c r="AH73" s="38"/>
+      <c r="AI73" s="38"/>
+      <c r="AJ73" s="38"/>
+      <c r="AK73" s="38"/>
+      <c r="AL73" s="38"/>
+      <c r="AM73" s="38"/>
+      <c r="AN73" s="38"/>
+      <c r="AO73" s="38"/>
+      <c r="AP73" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ73" s="38"/>
-      <c r="AR73" s="38"/>
-      <c r="AS73" s="38"/>
-      <c r="AT73" s="38"/>
-      <c r="AU73" s="38"/>
-      <c r="AV73" s="38"/>
-      <c r="AW73" s="39"/>
-      <c r="AX73" s="37" t="s">
+      <c r="AQ73" s="40"/>
+      <c r="AR73" s="40"/>
+      <c r="AS73" s="40"/>
+      <c r="AT73" s="40"/>
+      <c r="AU73" s="40"/>
+      <c r="AV73" s="40"/>
+      <c r="AW73" s="41"/>
+      <c r="AX73" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY73" s="38"/>
-      <c r="AZ73" s="38"/>
-      <c r="BA73" s="38"/>
-      <c r="BB73" s="38"/>
-      <c r="BC73" s="38"/>
-      <c r="BD73" s="39"/>
-      <c r="BE73" s="40" t="s">
+      <c r="AY73" s="40"/>
+      <c r="AZ73" s="40"/>
+      <c r="BA73" s="40"/>
+      <c r="BB73" s="40"/>
+      <c r="BC73" s="40"/>
+      <c r="BD73" s="41"/>
+      <c r="BE73" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="BF73" s="41"/>
-      <c r="BG73" s="41"/>
-      <c r="BH73" s="41"/>
-      <c r="BI73" s="41"/>
-      <c r="BJ73" s="41"/>
-      <c r="BK73" s="41"/>
-      <c r="BL73" s="41"/>
-      <c r="BM73" s="41"/>
-      <c r="BN73" s="42"/>
-      <c r="BO73" s="33" t="s">
+      <c r="BF73" s="43"/>
+      <c r="BG73" s="43"/>
+      <c r="BH73" s="43"/>
+      <c r="BI73" s="43"/>
+      <c r="BJ73" s="43"/>
+      <c r="BK73" s="43"/>
+      <c r="BL73" s="43"/>
+      <c r="BM73" s="43"/>
+      <c r="BN73" s="44"/>
+      <c r="BO73" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="BP73" s="43"/>
-      <c r="BQ73" s="43"/>
-      <c r="BR73" s="43"/>
-      <c r="BS73" s="43"/>
-      <c r="BT73" s="43"/>
-      <c r="BU73" s="43"/>
-      <c r="BV73" s="43"/>
-      <c r="BW73" s="43"/>
-      <c r="BX73" s="43"/>
-      <c r="BY73" s="43"/>
-      <c r="BZ73" s="43"/>
-      <c r="CA73" s="43"/>
-      <c r="CB73" s="43"/>
-      <c r="CC73" s="43"/>
-      <c r="CD73" s="35" t="s">
+      <c r="BP73" s="45"/>
+      <c r="BQ73" s="45"/>
+      <c r="BR73" s="45"/>
+      <c r="BS73" s="45"/>
+      <c r="BT73" s="45"/>
+      <c r="BU73" s="45"/>
+      <c r="BV73" s="45"/>
+      <c r="BW73" s="45"/>
+      <c r="BX73" s="45"/>
+      <c r="BY73" s="45"/>
+      <c r="BZ73" s="45"/>
+      <c r="CA73" s="45"/>
+      <c r="CB73" s="45"/>
+      <c r="CC73" s="45"/>
+      <c r="CD73" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="CE73" s="31"/>
-      <c r="CF73" s="36"/>
+      <c r="CE73" s="34"/>
+      <c r="CF73" s="194"/>
     </row>
     <row r="74" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="204" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="31" t="s">
+      <c r="C74" s="205"/>
+      <c r="D74" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="31" t="s">
+      <c r="E74" s="205"/>
+      <c r="F74" s="204" t="s">
         <v>63</v>
       </c>
-      <c r="G74" s="32"/>
-      <c r="H74" s="35" t="s">
+      <c r="G74" s="205"/>
+      <c r="H74" s="206" t="s">
         <v>85</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32">
+      <c r="I74" s="205"/>
+      <c r="J74" s="205"/>
+      <c r="K74" s="205">
         <v>1</v>
       </c>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32">
+      <c r="L74" s="205"/>
+      <c r="M74" s="205"/>
+      <c r="N74" s="205">
         <v>1</v>
       </c>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32">
+      <c r="O74" s="205"/>
+      <c r="P74" s="205"/>
+      <c r="Q74" s="205">
         <v>3</v>
       </c>
-      <c r="R74" s="32"/>
-      <c r="S74" s="33" t="s">
+      <c r="R74" s="205"/>
+      <c r="S74" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="T74" s="33"/>
-      <c r="U74" s="33"/>
-      <c r="V74" s="33"/>
-      <c r="W74" s="33"/>
-      <c r="X74" s="33"/>
-      <c r="Y74" s="33" t="s">
+      <c r="T74" s="207"/>
+      <c r="U74" s="207"/>
+      <c r="V74" s="207"/>
+      <c r="W74" s="207"/>
+      <c r="X74" s="207"/>
+      <c r="Y74" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="34"/>
-      <c r="AC74" s="34"/>
-      <c r="AD74" s="34"/>
-      <c r="AE74" s="34"/>
-      <c r="AF74" s="34"/>
-      <c r="AG74" s="34"/>
-      <c r="AH74" s="34"/>
-      <c r="AI74" s="34"/>
-      <c r="AJ74" s="34"/>
-      <c r="AK74" s="34"/>
-      <c r="AL74" s="34"/>
-      <c r="AM74" s="34"/>
-      <c r="AN74" s="34"/>
-      <c r="AO74" s="34"/>
-      <c r="AP74" s="37" t="s">
+      <c r="Z74" s="208"/>
+      <c r="AA74" s="208"/>
+      <c r="AB74" s="208"/>
+      <c r="AC74" s="208"/>
+      <c r="AD74" s="208"/>
+      <c r="AE74" s="208"/>
+      <c r="AF74" s="208"/>
+      <c r="AG74" s="208"/>
+      <c r="AH74" s="208"/>
+      <c r="AI74" s="208"/>
+      <c r="AJ74" s="208"/>
+      <c r="AK74" s="208"/>
+      <c r="AL74" s="208"/>
+      <c r="AM74" s="208"/>
+      <c r="AN74" s="208"/>
+      <c r="AO74" s="208"/>
+      <c r="AP74" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="AQ74" s="38"/>
-      <c r="AR74" s="38"/>
-      <c r="AS74" s="38"/>
-      <c r="AT74" s="38"/>
-      <c r="AU74" s="38"/>
-      <c r="AV74" s="38"/>
-      <c r="AW74" s="39"/>
-      <c r="AX74" s="37" t="s">
+      <c r="AQ74" s="210"/>
+      <c r="AR74" s="210"/>
+      <c r="AS74" s="210"/>
+      <c r="AT74" s="210"/>
+      <c r="AU74" s="210"/>
+      <c r="AV74" s="210"/>
+      <c r="AW74" s="211"/>
+      <c r="AX74" s="209" t="s">
         <v>68</v>
       </c>
-      <c r="AY74" s="38"/>
-      <c r="AZ74" s="38"/>
-      <c r="BA74" s="38"/>
-      <c r="BB74" s="38"/>
-      <c r="BC74" s="38"/>
-      <c r="BD74" s="39"/>
-      <c r="BE74" s="40" t="s">
+      <c r="AY74" s="210"/>
+      <c r="AZ74" s="210"/>
+      <c r="BA74" s="210"/>
+      <c r="BB74" s="210"/>
+      <c r="BC74" s="210"/>
+      <c r="BD74" s="211"/>
+      <c r="BE74" s="212" t="s">
         <v>166</v>
       </c>
-      <c r="BF74" s="41"/>
-      <c r="BG74" s="41"/>
-      <c r="BH74" s="41"/>
-      <c r="BI74" s="41"/>
-      <c r="BJ74" s="41"/>
-      <c r="BK74" s="41"/>
-      <c r="BL74" s="41"/>
-      <c r="BM74" s="41"/>
-      <c r="BN74" s="42"/>
-      <c r="BO74" s="33" t="s">
+      <c r="BF74" s="213"/>
+      <c r="BG74" s="213"/>
+      <c r="BH74" s="213"/>
+      <c r="BI74" s="213"/>
+      <c r="BJ74" s="213"/>
+      <c r="BK74" s="213"/>
+      <c r="BL74" s="213"/>
+      <c r="BM74" s="213"/>
+      <c r="BN74" s="214"/>
+      <c r="BO74" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="BP74" s="43"/>
-      <c r="BQ74" s="43"/>
-      <c r="BR74" s="43"/>
-      <c r="BS74" s="43"/>
-      <c r="BT74" s="43"/>
-      <c r="BU74" s="43"/>
-      <c r="BV74" s="43"/>
-      <c r="BW74" s="43"/>
-      <c r="BX74" s="43"/>
-      <c r="BY74" s="43"/>
-      <c r="BZ74" s="43"/>
-      <c r="CA74" s="43"/>
-      <c r="CB74" s="43"/>
-      <c r="CC74" s="43"/>
-      <c r="CD74" s="35" t="s">
+      <c r="BP74" s="215"/>
+      <c r="BQ74" s="215"/>
+      <c r="BR74" s="215"/>
+      <c r="BS74" s="215"/>
+      <c r="BT74" s="215"/>
+      <c r="BU74" s="215"/>
+      <c r="BV74" s="215"/>
+      <c r="BW74" s="215"/>
+      <c r="BX74" s="215"/>
+      <c r="BY74" s="215"/>
+      <c r="BZ74" s="215"/>
+      <c r="CA74" s="215"/>
+      <c r="CB74" s="215"/>
+      <c r="CC74" s="215"/>
+      <c r="CD74" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="CE74" s="31"/>
-      <c r="CF74" s="36"/>
+      <c r="CE74" s="204"/>
+      <c r="CF74" s="216"/>
     </row>
     <row r="75" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="31" t="s">
+      <c r="C75" s="35"/>
+      <c r="D75" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="31" t="s">
+      <c r="E75" s="35"/>
+      <c r="F75" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G75" s="32"/>
-      <c r="H75" s="35" t="s">
+      <c r="G75" s="35"/>
+      <c r="H75" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="44">
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="188">
         <v>1</v>
       </c>
-      <c r="L75" s="45"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="44">
+      <c r="L75" s="189"/>
+      <c r="M75" s="190"/>
+      <c r="N75" s="188">
         <v>1</v>
       </c>
-      <c r="O75" s="45"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="44">
+      <c r="O75" s="189"/>
+      <c r="P75" s="190"/>
+      <c r="Q75" s="188">
         <v>3</v>
       </c>
-      <c r="R75" s="46"/>
-      <c r="S75" s="33" t="s">
+      <c r="R75" s="190"/>
+      <c r="S75" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="T75" s="33"/>
-      <c r="U75" s="33"/>
-      <c r="V75" s="33"/>
-      <c r="W75" s="33"/>
-      <c r="X75" s="33"/>
-      <c r="Y75" s="47" t="s">
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="Z75" s="48"/>
-      <c r="AA75" s="48"/>
-      <c r="AB75" s="48"/>
-      <c r="AC75" s="48"/>
-      <c r="AD75" s="48"/>
-      <c r="AE75" s="48"/>
-      <c r="AF75" s="48"/>
-      <c r="AG75" s="48"/>
-      <c r="AH75" s="48"/>
-      <c r="AI75" s="48"/>
-      <c r="AJ75" s="48"/>
-      <c r="AK75" s="48"/>
-      <c r="AL75" s="48"/>
-      <c r="AM75" s="48"/>
-      <c r="AN75" s="48"/>
-      <c r="AO75" s="48"/>
-      <c r="AP75" s="37" t="s">
+      <c r="Z75" s="173"/>
+      <c r="AA75" s="173"/>
+      <c r="AB75" s="173"/>
+      <c r="AC75" s="173"/>
+      <c r="AD75" s="173"/>
+      <c r="AE75" s="173"/>
+      <c r="AF75" s="173"/>
+      <c r="AG75" s="173"/>
+      <c r="AH75" s="173"/>
+      <c r="AI75" s="173"/>
+      <c r="AJ75" s="173"/>
+      <c r="AK75" s="173"/>
+      <c r="AL75" s="173"/>
+      <c r="AM75" s="173"/>
+      <c r="AN75" s="173"/>
+      <c r="AO75" s="173"/>
+      <c r="AP75" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ75" s="38"/>
-      <c r="AR75" s="38"/>
-      <c r="AS75" s="38"/>
-      <c r="AT75" s="38"/>
-      <c r="AU75" s="38"/>
-      <c r="AV75" s="38"/>
-      <c r="AW75" s="39"/>
-      <c r="AX75" s="37" t="s">
+      <c r="AQ75" s="40"/>
+      <c r="AR75" s="40"/>
+      <c r="AS75" s="40"/>
+      <c r="AT75" s="40"/>
+      <c r="AU75" s="40"/>
+      <c r="AV75" s="40"/>
+      <c r="AW75" s="41"/>
+      <c r="AX75" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY75" s="38"/>
-      <c r="AZ75" s="38"/>
-      <c r="BA75" s="38"/>
-      <c r="BB75" s="38"/>
-      <c r="BC75" s="38"/>
-      <c r="BD75" s="39"/>
-      <c r="BE75" s="40" t="s">
+      <c r="AY75" s="40"/>
+      <c r="AZ75" s="40"/>
+      <c r="BA75" s="40"/>
+      <c r="BB75" s="40"/>
+      <c r="BC75" s="40"/>
+      <c r="BD75" s="41"/>
+      <c r="BE75" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="BF75" s="41"/>
-      <c r="BG75" s="41"/>
-      <c r="BH75" s="41"/>
-      <c r="BI75" s="41"/>
-      <c r="BJ75" s="41"/>
-      <c r="BK75" s="41"/>
-      <c r="BL75" s="41"/>
-      <c r="BM75" s="41"/>
-      <c r="BN75" s="42"/>
-      <c r="BO75" s="33" t="s">
+      <c r="BF75" s="43"/>
+      <c r="BG75" s="43"/>
+      <c r="BH75" s="43"/>
+      <c r="BI75" s="43"/>
+      <c r="BJ75" s="43"/>
+      <c r="BK75" s="43"/>
+      <c r="BL75" s="43"/>
+      <c r="BM75" s="43"/>
+      <c r="BN75" s="44"/>
+      <c r="BO75" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="BP75" s="43"/>
-      <c r="BQ75" s="43"/>
-      <c r="BR75" s="43"/>
-      <c r="BS75" s="43"/>
-      <c r="BT75" s="43"/>
-      <c r="BU75" s="43"/>
-      <c r="BV75" s="43"/>
-      <c r="BW75" s="43"/>
-      <c r="BX75" s="43"/>
-      <c r="BY75" s="43"/>
-      <c r="BZ75" s="43"/>
-      <c r="CA75" s="43"/>
-      <c r="CB75" s="43"/>
-      <c r="CC75" s="43"/>
-      <c r="CD75" s="35" t="s">
+      <c r="BP75" s="45"/>
+      <c r="BQ75" s="45"/>
+      <c r="BR75" s="45"/>
+      <c r="BS75" s="45"/>
+      <c r="BT75" s="45"/>
+      <c r="BU75" s="45"/>
+      <c r="BV75" s="45"/>
+      <c r="BW75" s="45"/>
+      <c r="BX75" s="45"/>
+      <c r="BY75" s="45"/>
+      <c r="BZ75" s="45"/>
+      <c r="CA75" s="45"/>
+      <c r="CB75" s="45"/>
+      <c r="CC75" s="45"/>
+      <c r="CD75" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="CE75" s="31"/>
-      <c r="CF75" s="36"/>
+      <c r="CE75" s="34"/>
+      <c r="CF75" s="194"/>
     </row>
     <row r="76" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="31" t="s">
+      <c r="C76" s="35"/>
+      <c r="D76" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E76" s="32"/>
-      <c r="F76" s="31" t="s">
+      <c r="E76" s="35"/>
+      <c r="F76" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="32"/>
-      <c r="H76" s="35" t="s">
+      <c r="G76" s="35"/>
+      <c r="H76" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="44">
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="188">
         <v>1</v>
       </c>
-      <c r="L76" s="45"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="44">
+      <c r="L76" s="189"/>
+      <c r="M76" s="190"/>
+      <c r="N76" s="188">
         <v>1</v>
       </c>
-      <c r="O76" s="45"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="44">
+      <c r="O76" s="189"/>
+      <c r="P76" s="190"/>
+      <c r="Q76" s="188">
         <v>3</v>
       </c>
-      <c r="R76" s="46"/>
-      <c r="S76" s="33" t="s">
+      <c r="R76" s="190"/>
+      <c r="S76" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="T76" s="33"/>
-      <c r="U76" s="33"/>
-      <c r="V76" s="33"/>
-      <c r="W76" s="33"/>
-      <c r="X76" s="33"/>
-      <c r="Y76" s="47" t="s">
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="Z76" s="48"/>
-      <c r="AA76" s="48"/>
-      <c r="AB76" s="48"/>
-      <c r="AC76" s="48"/>
-      <c r="AD76" s="48"/>
-      <c r="AE76" s="48"/>
-      <c r="AF76" s="48"/>
-      <c r="AG76" s="48"/>
-      <c r="AH76" s="48"/>
-      <c r="AI76" s="48"/>
-      <c r="AJ76" s="48"/>
-      <c r="AK76" s="48"/>
-      <c r="AL76" s="48"/>
-      <c r="AM76" s="48"/>
-      <c r="AN76" s="48"/>
-      <c r="AO76" s="48"/>
-      <c r="AP76" s="37" t="s">
+      <c r="Z76" s="173"/>
+      <c r="AA76" s="173"/>
+      <c r="AB76" s="173"/>
+      <c r="AC76" s="173"/>
+      <c r="AD76" s="173"/>
+      <c r="AE76" s="173"/>
+      <c r="AF76" s="173"/>
+      <c r="AG76" s="173"/>
+      <c r="AH76" s="173"/>
+      <c r="AI76" s="173"/>
+      <c r="AJ76" s="173"/>
+      <c r="AK76" s="173"/>
+      <c r="AL76" s="173"/>
+      <c r="AM76" s="173"/>
+      <c r="AN76" s="173"/>
+      <c r="AO76" s="173"/>
+      <c r="AP76" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ76" s="38"/>
-      <c r="AR76" s="38"/>
-      <c r="AS76" s="38"/>
-      <c r="AT76" s="38"/>
-      <c r="AU76" s="38"/>
-      <c r="AV76" s="38"/>
-      <c r="AW76" s="39"/>
-      <c r="AX76" s="37" t="s">
+      <c r="AQ76" s="40"/>
+      <c r="AR76" s="40"/>
+      <c r="AS76" s="40"/>
+      <c r="AT76" s="40"/>
+      <c r="AU76" s="40"/>
+      <c r="AV76" s="40"/>
+      <c r="AW76" s="41"/>
+      <c r="AX76" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY76" s="38"/>
-      <c r="AZ76" s="38"/>
-      <c r="BA76" s="38"/>
-      <c r="BB76" s="38"/>
-      <c r="BC76" s="38"/>
-      <c r="BD76" s="39"/>
-      <c r="BE76" s="40" t="s">
+      <c r="AY76" s="40"/>
+      <c r="AZ76" s="40"/>
+      <c r="BA76" s="40"/>
+      <c r="BB76" s="40"/>
+      <c r="BC76" s="40"/>
+      <c r="BD76" s="41"/>
+      <c r="BE76" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="BF76" s="41"/>
-      <c r="BG76" s="41"/>
-      <c r="BH76" s="41"/>
-      <c r="BI76" s="41"/>
-      <c r="BJ76" s="41"/>
-      <c r="BK76" s="41"/>
-      <c r="BL76" s="41"/>
-      <c r="BM76" s="41"/>
-      <c r="BN76" s="42"/>
-      <c r="BO76" s="33" t="s">
+      <c r="BF76" s="43"/>
+      <c r="BG76" s="43"/>
+      <c r="BH76" s="43"/>
+      <c r="BI76" s="43"/>
+      <c r="BJ76" s="43"/>
+      <c r="BK76" s="43"/>
+      <c r="BL76" s="43"/>
+      <c r="BM76" s="43"/>
+      <c r="BN76" s="44"/>
+      <c r="BO76" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="BP76" s="43"/>
-      <c r="BQ76" s="43"/>
-      <c r="BR76" s="43"/>
-      <c r="BS76" s="43"/>
-      <c r="BT76" s="43"/>
-      <c r="BU76" s="43"/>
-      <c r="BV76" s="43"/>
-      <c r="BW76" s="43"/>
-      <c r="BX76" s="43"/>
-      <c r="BY76" s="43"/>
-      <c r="BZ76" s="43"/>
-      <c r="CA76" s="43"/>
-      <c r="CB76" s="43"/>
-      <c r="CC76" s="43"/>
-      <c r="CD76" s="35" t="s">
+      <c r="BP76" s="45"/>
+      <c r="BQ76" s="45"/>
+      <c r="BR76" s="45"/>
+      <c r="BS76" s="45"/>
+      <c r="BT76" s="45"/>
+      <c r="BU76" s="45"/>
+      <c r="BV76" s="45"/>
+      <c r="BW76" s="45"/>
+      <c r="BX76" s="45"/>
+      <c r="BY76" s="45"/>
+      <c r="BZ76" s="45"/>
+      <c r="CA76" s="45"/>
+      <c r="CB76" s="45"/>
+      <c r="CC76" s="45"/>
+      <c r="CD76" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="CE76" s="31"/>
-      <c r="CF76" s="36"/>
+      <c r="CE76" s="34"/>
+      <c r="CF76" s="194"/>
     </row>
     <row r="77" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="31" t="s">
+      <c r="C77" s="35"/>
+      <c r="D77" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E77" s="32"/>
-      <c r="F77" s="31" t="s">
+      <c r="E77" s="35"/>
+      <c r="F77" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G77" s="32"/>
-      <c r="H77" s="35" t="s">
+      <c r="G77" s="35"/>
+      <c r="H77" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="44">
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="188">
         <v>1</v>
       </c>
-      <c r="L77" s="45"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="44">
+      <c r="L77" s="189"/>
+      <c r="M77" s="190"/>
+      <c r="N77" s="188">
         <v>1</v>
       </c>
-      <c r="O77" s="45"/>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="44">
+      <c r="O77" s="189"/>
+      <c r="P77" s="190"/>
+      <c r="Q77" s="188">
         <v>3</v>
       </c>
-      <c r="R77" s="46"/>
-      <c r="S77" s="33" t="s">
+      <c r="R77" s="190"/>
+      <c r="S77" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="T77" s="33"/>
-      <c r="U77" s="33"/>
-      <c r="V77" s="33"/>
-      <c r="W77" s="33"/>
-      <c r="X77" s="33"/>
-      <c r="Y77" s="47" t="s">
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="Z77" s="48"/>
-      <c r="AA77" s="48"/>
-      <c r="AB77" s="48"/>
-      <c r="AC77" s="48"/>
-      <c r="AD77" s="48"/>
-      <c r="AE77" s="48"/>
-      <c r="AF77" s="48"/>
-      <c r="AG77" s="48"/>
-      <c r="AH77" s="48"/>
-      <c r="AI77" s="48"/>
-      <c r="AJ77" s="48"/>
-      <c r="AK77" s="48"/>
-      <c r="AL77" s="48"/>
-      <c r="AM77" s="48"/>
-      <c r="AN77" s="48"/>
-      <c r="AO77" s="48"/>
-      <c r="AP77" s="37" t="s">
+      <c r="Z77" s="173"/>
+      <c r="AA77" s="173"/>
+      <c r="AB77" s="173"/>
+      <c r="AC77" s="173"/>
+      <c r="AD77" s="173"/>
+      <c r="AE77" s="173"/>
+      <c r="AF77" s="173"/>
+      <c r="AG77" s="173"/>
+      <c r="AH77" s="173"/>
+      <c r="AI77" s="173"/>
+      <c r="AJ77" s="173"/>
+      <c r="AK77" s="173"/>
+      <c r="AL77" s="173"/>
+      <c r="AM77" s="173"/>
+      <c r="AN77" s="173"/>
+      <c r="AO77" s="173"/>
+      <c r="AP77" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ77" s="38"/>
-      <c r="AR77" s="38"/>
-      <c r="AS77" s="38"/>
-      <c r="AT77" s="38"/>
-      <c r="AU77" s="38"/>
-      <c r="AV77" s="38"/>
-      <c r="AW77" s="39"/>
-      <c r="AX77" s="37" t="s">
+      <c r="AQ77" s="40"/>
+      <c r="AR77" s="40"/>
+      <c r="AS77" s="40"/>
+      <c r="AT77" s="40"/>
+      <c r="AU77" s="40"/>
+      <c r="AV77" s="40"/>
+      <c r="AW77" s="41"/>
+      <c r="AX77" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY77" s="38"/>
-      <c r="AZ77" s="38"/>
-      <c r="BA77" s="38"/>
-      <c r="BB77" s="38"/>
-      <c r="BC77" s="38"/>
-      <c r="BD77" s="39"/>
-      <c r="BE77" s="40" t="s">
+      <c r="AY77" s="40"/>
+      <c r="AZ77" s="40"/>
+      <c r="BA77" s="40"/>
+      <c r="BB77" s="40"/>
+      <c r="BC77" s="40"/>
+      <c r="BD77" s="41"/>
+      <c r="BE77" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="BF77" s="41"/>
-      <c r="BG77" s="41"/>
-      <c r="BH77" s="41"/>
-      <c r="BI77" s="41"/>
-      <c r="BJ77" s="41"/>
-      <c r="BK77" s="41"/>
-      <c r="BL77" s="41"/>
-      <c r="BM77" s="41"/>
-      <c r="BN77" s="42"/>
-      <c r="BO77" s="33" t="s">
+      <c r="BF77" s="43"/>
+      <c r="BG77" s="43"/>
+      <c r="BH77" s="43"/>
+      <c r="BI77" s="43"/>
+      <c r="BJ77" s="43"/>
+      <c r="BK77" s="43"/>
+      <c r="BL77" s="43"/>
+      <c r="BM77" s="43"/>
+      <c r="BN77" s="44"/>
+      <c r="BO77" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="BP77" s="43"/>
-      <c r="BQ77" s="43"/>
-      <c r="BR77" s="43"/>
-      <c r="BS77" s="43"/>
-      <c r="BT77" s="43"/>
-      <c r="BU77" s="43"/>
-      <c r="BV77" s="43"/>
-      <c r="BW77" s="43"/>
-      <c r="BX77" s="43"/>
-      <c r="BY77" s="43"/>
-      <c r="BZ77" s="43"/>
-      <c r="CA77" s="43"/>
-      <c r="CB77" s="43"/>
-      <c r="CC77" s="43"/>
-      <c r="CD77" s="35" t="s">
+      <c r="BP77" s="45"/>
+      <c r="BQ77" s="45"/>
+      <c r="BR77" s="45"/>
+      <c r="BS77" s="45"/>
+      <c r="BT77" s="45"/>
+      <c r="BU77" s="45"/>
+      <c r="BV77" s="45"/>
+      <c r="BW77" s="45"/>
+      <c r="BX77" s="45"/>
+      <c r="BY77" s="45"/>
+      <c r="BZ77" s="45"/>
+      <c r="CA77" s="45"/>
+      <c r="CB77" s="45"/>
+      <c r="CC77" s="45"/>
+      <c r="CD77" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="CE77" s="31"/>
-      <c r="CF77" s="36"/>
+      <c r="CE77" s="34"/>
+      <c r="CF77" s="194"/>
     </row>
     <row r="78" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="31" t="s">
+      <c r="C78" s="35"/>
+      <c r="D78" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="31" t="s">
+      <c r="E78" s="35"/>
+      <c r="F78" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G78" s="32"/>
-      <c r="H78" s="35" t="s">
+      <c r="G78" s="35"/>
+      <c r="H78" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="44">
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="188">
         <v>1</v>
       </c>
-      <c r="L78" s="45"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="44">
+      <c r="L78" s="189"/>
+      <c r="M78" s="190"/>
+      <c r="N78" s="188">
         <v>1</v>
       </c>
-      <c r="O78" s="45"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="44">
+      <c r="O78" s="189"/>
+      <c r="P78" s="190"/>
+      <c r="Q78" s="188">
         <v>3</v>
       </c>
-      <c r="R78" s="46"/>
-      <c r="S78" s="33" t="s">
+      <c r="R78" s="190"/>
+      <c r="S78" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="T78" s="33"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="33"/>
-      <c r="W78" s="33"/>
-      <c r="X78" s="33"/>
-      <c r="Y78" s="47" t="s">
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="Z78" s="48"/>
-      <c r="AA78" s="48"/>
-      <c r="AB78" s="48"/>
-      <c r="AC78" s="48"/>
-      <c r="AD78" s="48"/>
-      <c r="AE78" s="48"/>
-      <c r="AF78" s="48"/>
-      <c r="AG78" s="48"/>
-      <c r="AH78" s="48"/>
-      <c r="AI78" s="48"/>
-      <c r="AJ78" s="48"/>
-      <c r="AK78" s="48"/>
-      <c r="AL78" s="48"/>
-      <c r="AM78" s="48"/>
-      <c r="AN78" s="48"/>
-      <c r="AO78" s="48"/>
-      <c r="AP78" s="37" t="s">
+      <c r="Z78" s="173"/>
+      <c r="AA78" s="173"/>
+      <c r="AB78" s="173"/>
+      <c r="AC78" s="173"/>
+      <c r="AD78" s="173"/>
+      <c r="AE78" s="173"/>
+      <c r="AF78" s="173"/>
+      <c r="AG78" s="173"/>
+      <c r="AH78" s="173"/>
+      <c r="AI78" s="173"/>
+      <c r="AJ78" s="173"/>
+      <c r="AK78" s="173"/>
+      <c r="AL78" s="173"/>
+      <c r="AM78" s="173"/>
+      <c r="AN78" s="173"/>
+      <c r="AO78" s="173"/>
+      <c r="AP78" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AQ78" s="38"/>
-      <c r="AR78" s="38"/>
-      <c r="AS78" s="38"/>
-      <c r="AT78" s="38"/>
-      <c r="AU78" s="38"/>
-      <c r="AV78" s="38"/>
-      <c r="AW78" s="39"/>
-      <c r="AX78" s="37" t="s">
+      <c r="AQ78" s="40"/>
+      <c r="AR78" s="40"/>
+      <c r="AS78" s="40"/>
+      <c r="AT78" s="40"/>
+      <c r="AU78" s="40"/>
+      <c r="AV78" s="40"/>
+      <c r="AW78" s="41"/>
+      <c r="AX78" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AY78" s="38"/>
-      <c r="AZ78" s="38"/>
-      <c r="BA78" s="38"/>
-      <c r="BB78" s="38"/>
-      <c r="BC78" s="38"/>
-      <c r="BD78" s="39"/>
-      <c r="BE78" s="40" t="s">
+      <c r="AY78" s="40"/>
+      <c r="AZ78" s="40"/>
+      <c r="BA78" s="40"/>
+      <c r="BB78" s="40"/>
+      <c r="BC78" s="40"/>
+      <c r="BD78" s="41"/>
+      <c r="BE78" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="BF78" s="41"/>
-      <c r="BG78" s="41"/>
-      <c r="BH78" s="41"/>
-      <c r="BI78" s="41"/>
-      <c r="BJ78" s="41"/>
-      <c r="BK78" s="41"/>
-      <c r="BL78" s="41"/>
-      <c r="BM78" s="41"/>
-      <c r="BN78" s="42"/>
-      <c r="BO78" s="33" t="s">
+      <c r="BF78" s="43"/>
+      <c r="BG78" s="43"/>
+      <c r="BH78" s="43"/>
+      <c r="BI78" s="43"/>
+      <c r="BJ78" s="43"/>
+      <c r="BK78" s="43"/>
+      <c r="BL78" s="43"/>
+      <c r="BM78" s="43"/>
+      <c r="BN78" s="44"/>
+      <c r="BO78" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="BP78" s="43"/>
-      <c r="BQ78" s="43"/>
-      <c r="BR78" s="43"/>
-      <c r="BS78" s="43"/>
-      <c r="BT78" s="43"/>
-      <c r="BU78" s="43"/>
-      <c r="BV78" s="43"/>
-      <c r="BW78" s="43"/>
-      <c r="BX78" s="43"/>
-      <c r="BY78" s="43"/>
-      <c r="BZ78" s="43"/>
-      <c r="CA78" s="43"/>
-      <c r="CB78" s="43"/>
-      <c r="CC78" s="43"/>
-      <c r="CD78" s="35" t="s">
+      <c r="BP78" s="45"/>
+      <c r="BQ78" s="45"/>
+      <c r="BR78" s="45"/>
+      <c r="BS78" s="45"/>
+      <c r="BT78" s="45"/>
+      <c r="BU78" s="45"/>
+      <c r="BV78" s="45"/>
+      <c r="BW78" s="45"/>
+      <c r="BX78" s="45"/>
+      <c r="BY78" s="45"/>
+      <c r="BZ78" s="45"/>
+      <c r="CA78" s="45"/>
+      <c r="CB78" s="45"/>
+      <c r="CC78" s="45"/>
+      <c r="CD78" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="CE78" s="31"/>
-      <c r="CF78" s="36"/>
+      <c r="CE78" s="34"/>
+      <c r="CF78" s="194"/>
     </row>
     <row r="79" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="196" t="s">
         <v>175</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="31" t="s">
+      <c r="C79" s="198"/>
+      <c r="D79" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="E79" s="32"/>
-      <c r="F79" s="31" t="s">
+      <c r="E79" s="198"/>
+      <c r="F79" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="G79" s="32"/>
-      <c r="H79" s="35" t="s">
+      <c r="G79" s="198"/>
+      <c r="H79" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="44">
+      <c r="I79" s="198"/>
+      <c r="J79" s="198"/>
+      <c r="K79" s="199">
         <v>1</v>
       </c>
-      <c r="L79" s="45"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="44">
+      <c r="L79" s="200"/>
+      <c r="M79" s="201"/>
+      <c r="N79" s="199">
         <v>1</v>
       </c>
-      <c r="O79" s="45"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="44">
+      <c r="O79" s="200"/>
+      <c r="P79" s="201"/>
+      <c r="Q79" s="199">
         <v>3</v>
       </c>
-      <c r="R79" s="46"/>
-      <c r="S79" s="33" t="s">
+      <c r="R79" s="201"/>
+      <c r="S79" s="177" t="s">
         <v>176</v>
       </c>
-      <c r="T79" s="33"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="33"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="47" t="s">
+      <c r="T79" s="177"/>
+      <c r="U79" s="177"/>
+      <c r="V79" s="177"/>
+      <c r="W79" s="177"/>
+      <c r="X79" s="177"/>
+      <c r="Y79" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="Z79" s="48"/>
-      <c r="AA79" s="48"/>
-      <c r="AB79" s="48"/>
-      <c r="AC79" s="48"/>
-      <c r="AD79" s="48"/>
-      <c r="AE79" s="48"/>
-      <c r="AF79" s="48"/>
-      <c r="AG79" s="48"/>
-      <c r="AH79" s="48"/>
-      <c r="AI79" s="48"/>
-      <c r="AJ79" s="48"/>
-      <c r="AK79" s="48"/>
-      <c r="AL79" s="48"/>
-      <c r="AM79" s="48"/>
-      <c r="AN79" s="48"/>
-      <c r="AO79" s="48"/>
-      <c r="AP79" s="37" t="s">
+      <c r="Z79" s="203"/>
+      <c r="AA79" s="203"/>
+      <c r="AB79" s="203"/>
+      <c r="AC79" s="203"/>
+      <c r="AD79" s="203"/>
+      <c r="AE79" s="203"/>
+      <c r="AF79" s="203"/>
+      <c r="AG79" s="203"/>
+      <c r="AH79" s="203"/>
+      <c r="AI79" s="203"/>
+      <c r="AJ79" s="203"/>
+      <c r="AK79" s="203"/>
+      <c r="AL79" s="203"/>
+      <c r="AM79" s="203"/>
+      <c r="AN79" s="203"/>
+      <c r="AO79" s="203"/>
+      <c r="AP79" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="AQ79" s="38"/>
-      <c r="AR79" s="38"/>
-      <c r="AS79" s="38"/>
-      <c r="AT79" s="38"/>
-      <c r="AU79" s="38"/>
-      <c r="AV79" s="38"/>
-      <c r="AW79" s="39"/>
-      <c r="AX79" s="37" t="s">
+      <c r="AQ79" s="192"/>
+      <c r="AR79" s="192"/>
+      <c r="AS79" s="192"/>
+      <c r="AT79" s="192"/>
+      <c r="AU79" s="192"/>
+      <c r="AV79" s="192"/>
+      <c r="AW79" s="193"/>
+      <c r="AX79" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="AY79" s="38"/>
-      <c r="AZ79" s="38"/>
-      <c r="BA79" s="38"/>
-      <c r="BB79" s="38"/>
-      <c r="BC79" s="38"/>
-      <c r="BD79" s="39"/>
-      <c r="BE79" s="40" t="s">
+      <c r="AY79" s="192"/>
+      <c r="AZ79" s="192"/>
+      <c r="BA79" s="192"/>
+      <c r="BB79" s="192"/>
+      <c r="BC79" s="192"/>
+      <c r="BD79" s="193"/>
+      <c r="BE79" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="BF79" s="41"/>
-      <c r="BG79" s="41"/>
-      <c r="BH79" s="41"/>
-      <c r="BI79" s="41"/>
-      <c r="BJ79" s="41"/>
-      <c r="BK79" s="41"/>
-      <c r="BL79" s="41"/>
-      <c r="BM79" s="41"/>
-      <c r="BN79" s="42"/>
-      <c r="BO79" s="33" t="s">
+      <c r="BF79" s="175"/>
+      <c r="BG79" s="175"/>
+      <c r="BH79" s="175"/>
+      <c r="BI79" s="175"/>
+      <c r="BJ79" s="175"/>
+      <c r="BK79" s="175"/>
+      <c r="BL79" s="175"/>
+      <c r="BM79" s="175"/>
+      <c r="BN79" s="176"/>
+      <c r="BO79" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="BP79" s="43"/>
-      <c r="BQ79" s="43"/>
-      <c r="BR79" s="43"/>
-      <c r="BS79" s="43"/>
-      <c r="BT79" s="43"/>
-      <c r="BU79" s="43"/>
-      <c r="BV79" s="43"/>
-      <c r="BW79" s="43"/>
-      <c r="BX79" s="43"/>
-      <c r="BY79" s="43"/>
-      <c r="BZ79" s="43"/>
-      <c r="CA79" s="43"/>
-      <c r="CB79" s="43"/>
-      <c r="CC79" s="43"/>
-      <c r="CD79" s="35" t="s">
+      <c r="BP79" s="178"/>
+      <c r="BQ79" s="178"/>
+      <c r="BR79" s="178"/>
+      <c r="BS79" s="178"/>
+      <c r="BT79" s="178"/>
+      <c r="BU79" s="178"/>
+      <c r="BV79" s="178"/>
+      <c r="BW79" s="178"/>
+      <c r="BX79" s="178"/>
+      <c r="BY79" s="178"/>
+      <c r="BZ79" s="178"/>
+      <c r="CA79" s="178"/>
+      <c r="CB79" s="178"/>
+      <c r="CC79" s="178"/>
+      <c r="CD79" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="CE79" s="31"/>
-      <c r="CF79" s="36"/>
+      <c r="CE79" s="196"/>
+      <c r="CF79" s="197"/>
     </row>
     <row r="80" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="196" t="s">
         <v>177</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="31" t="s">
+      <c r="C80" s="198"/>
+      <c r="D80" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="31" t="s">
+      <c r="E80" s="198"/>
+      <c r="F80" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="G80" s="32"/>
-      <c r="H80" s="35" t="s">
+      <c r="G80" s="198"/>
+      <c r="H80" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="44">
+      <c r="I80" s="198"/>
+      <c r="J80" s="198"/>
+      <c r="K80" s="199">
         <v>1</v>
       </c>
-      <c r="L80" s="45"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="44">
+      <c r="L80" s="200"/>
+      <c r="M80" s="201"/>
+      <c r="N80" s="199">
         <v>1</v>
       </c>
-      <c r="O80" s="45"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="44">
+      <c r="O80" s="200"/>
+      <c r="P80" s="201"/>
+      <c r="Q80" s="199">
         <v>3</v>
       </c>
-      <c r="R80" s="46"/>
-      <c r="S80" s="33" t="s">
+      <c r="R80" s="201"/>
+      <c r="S80" s="177" t="s">
         <v>178</v>
       </c>
-      <c r="T80" s="33"/>
-      <c r="U80" s="33"/>
-      <c r="V80" s="33"/>
-      <c r="W80" s="33"/>
-      <c r="X80" s="33"/>
-      <c r="Y80" s="47" t="s">
+      <c r="T80" s="177"/>
+      <c r="U80" s="177"/>
+      <c r="V80" s="177"/>
+      <c r="W80" s="177"/>
+      <c r="X80" s="177"/>
+      <c r="Y80" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="Z80" s="48"/>
-      <c r="AA80" s="48"/>
-      <c r="AB80" s="48"/>
-      <c r="AC80" s="48"/>
-      <c r="AD80" s="48"/>
-      <c r="AE80" s="48"/>
-      <c r="AF80" s="48"/>
-      <c r="AG80" s="48"/>
-      <c r="AH80" s="48"/>
-      <c r="AI80" s="48"/>
-      <c r="AJ80" s="48"/>
-      <c r="AK80" s="48"/>
-      <c r="AL80" s="48"/>
-      <c r="AM80" s="48"/>
-      <c r="AN80" s="48"/>
-      <c r="AO80" s="48"/>
-      <c r="AP80" s="37" t="s">
+      <c r="Z80" s="203"/>
+      <c r="AA80" s="203"/>
+      <c r="AB80" s="203"/>
+      <c r="AC80" s="203"/>
+      <c r="AD80" s="203"/>
+      <c r="AE80" s="203"/>
+      <c r="AF80" s="203"/>
+      <c r="AG80" s="203"/>
+      <c r="AH80" s="203"/>
+      <c r="AI80" s="203"/>
+      <c r="AJ80" s="203"/>
+      <c r="AK80" s="203"/>
+      <c r="AL80" s="203"/>
+      <c r="AM80" s="203"/>
+      <c r="AN80" s="203"/>
+      <c r="AO80" s="203"/>
+      <c r="AP80" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="AQ80" s="38"/>
-      <c r="AR80" s="38"/>
-      <c r="AS80" s="38"/>
-      <c r="AT80" s="38"/>
-      <c r="AU80" s="38"/>
-      <c r="AV80" s="38"/>
-      <c r="AW80" s="39"/>
-      <c r="AX80" s="37" t="s">
+      <c r="AQ80" s="192"/>
+      <c r="AR80" s="192"/>
+      <c r="AS80" s="192"/>
+      <c r="AT80" s="192"/>
+      <c r="AU80" s="192"/>
+      <c r="AV80" s="192"/>
+      <c r="AW80" s="193"/>
+      <c r="AX80" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="AY80" s="38"/>
-      <c r="AZ80" s="38"/>
-      <c r="BA80" s="38"/>
-      <c r="BB80" s="38"/>
-      <c r="BC80" s="38"/>
-      <c r="BD80" s="39"/>
-      <c r="BE80" s="40" t="s">
+      <c r="AY80" s="192"/>
+      <c r="AZ80" s="192"/>
+      <c r="BA80" s="192"/>
+      <c r="BB80" s="192"/>
+      <c r="BC80" s="192"/>
+      <c r="BD80" s="193"/>
+      <c r="BE80" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="BF80" s="41"/>
-      <c r="BG80" s="41"/>
-      <c r="BH80" s="41"/>
-      <c r="BI80" s="41"/>
-      <c r="BJ80" s="41"/>
-      <c r="BK80" s="41"/>
-      <c r="BL80" s="41"/>
-      <c r="BM80" s="41"/>
-      <c r="BN80" s="42"/>
-      <c r="BO80" s="33" t="s">
+      <c r="BF80" s="175"/>
+      <c r="BG80" s="175"/>
+      <c r="BH80" s="175"/>
+      <c r="BI80" s="175"/>
+      <c r="BJ80" s="175"/>
+      <c r="BK80" s="175"/>
+      <c r="BL80" s="175"/>
+      <c r="BM80" s="175"/>
+      <c r="BN80" s="176"/>
+      <c r="BO80" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="BP80" s="43"/>
-      <c r="BQ80" s="43"/>
-      <c r="BR80" s="43"/>
-      <c r="BS80" s="43"/>
-      <c r="BT80" s="43"/>
-      <c r="BU80" s="43"/>
-      <c r="BV80" s="43"/>
-      <c r="BW80" s="43"/>
-      <c r="BX80" s="43"/>
-      <c r="BY80" s="43"/>
-      <c r="BZ80" s="43"/>
-      <c r="CA80" s="43"/>
-      <c r="CB80" s="43"/>
-      <c r="CC80" s="43"/>
-      <c r="CD80" s="35" t="s">
+      <c r="BP80" s="178"/>
+      <c r="BQ80" s="178"/>
+      <c r="BR80" s="178"/>
+      <c r="BS80" s="178"/>
+      <c r="BT80" s="178"/>
+      <c r="BU80" s="178"/>
+      <c r="BV80" s="178"/>
+      <c r="BW80" s="178"/>
+      <c r="BX80" s="178"/>
+      <c r="BY80" s="178"/>
+      <c r="BZ80" s="178"/>
+      <c r="CA80" s="178"/>
+      <c r="CB80" s="178"/>
+      <c r="CC80" s="178"/>
+      <c r="CD80" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="CE80" s="31"/>
-      <c r="CF80" s="36"/>
+      <c r="CE80" s="196"/>
+      <c r="CF80" s="197"/>
     </row>
     <row r="81" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="196" t="s">
         <v>179</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="31" t="s">
+      <c r="C81" s="198"/>
+      <c r="D81" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="32"/>
-      <c r="F81" s="31" t="s">
+      <c r="E81" s="198"/>
+      <c r="F81" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="G81" s="32"/>
-      <c r="H81" s="35" t="s">
+      <c r="G81" s="198"/>
+      <c r="H81" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="44">
+      <c r="I81" s="198"/>
+      <c r="J81" s="198"/>
+      <c r="K81" s="199">
         <v>1</v>
       </c>
-      <c r="L81" s="45"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="44">
+      <c r="L81" s="200"/>
+      <c r="M81" s="201"/>
+      <c r="N81" s="199">
         <v>1</v>
       </c>
-      <c r="O81" s="45"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="44">
+      <c r="O81" s="200"/>
+      <c r="P81" s="201"/>
+      <c r="Q81" s="199">
         <v>3</v>
       </c>
-      <c r="R81" s="46"/>
-      <c r="S81" s="33" t="s">
+      <c r="R81" s="201"/>
+      <c r="S81" s="177" t="s">
         <v>180</v>
       </c>
-      <c r="T81" s="33"/>
-      <c r="U81" s="33"/>
-      <c r="V81" s="33"/>
-      <c r="W81" s="33"/>
-      <c r="X81" s="33"/>
-      <c r="Y81" s="47" t="s">
+      <c r="T81" s="177"/>
+      <c r="U81" s="177"/>
+      <c r="V81" s="177"/>
+      <c r="W81" s="177"/>
+      <c r="X81" s="177"/>
+      <c r="Y81" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="Z81" s="48"/>
-      <c r="AA81" s="48"/>
-      <c r="AB81" s="48"/>
-      <c r="AC81" s="48"/>
-      <c r="AD81" s="48"/>
-      <c r="AE81" s="48"/>
-      <c r="AF81" s="48"/>
-      <c r="AG81" s="48"/>
-      <c r="AH81" s="48"/>
-      <c r="AI81" s="48"/>
-      <c r="AJ81" s="48"/>
-      <c r="AK81" s="48"/>
-      <c r="AL81" s="48"/>
-      <c r="AM81" s="48"/>
-      <c r="AN81" s="48"/>
-      <c r="AO81" s="48"/>
-      <c r="AP81" s="37" t="s">
+      <c r="Z81" s="203"/>
+      <c r="AA81" s="203"/>
+      <c r="AB81" s="203"/>
+      <c r="AC81" s="203"/>
+      <c r="AD81" s="203"/>
+      <c r="AE81" s="203"/>
+      <c r="AF81" s="203"/>
+      <c r="AG81" s="203"/>
+      <c r="AH81" s="203"/>
+      <c r="AI81" s="203"/>
+      <c r="AJ81" s="203"/>
+      <c r="AK81" s="203"/>
+      <c r="AL81" s="203"/>
+      <c r="AM81" s="203"/>
+      <c r="AN81" s="203"/>
+      <c r="AO81" s="203"/>
+      <c r="AP81" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="AQ81" s="38"/>
-      <c r="AR81" s="38"/>
-      <c r="AS81" s="38"/>
-      <c r="AT81" s="38"/>
-      <c r="AU81" s="38"/>
-      <c r="AV81" s="38"/>
-      <c r="AW81" s="39"/>
-      <c r="AX81" s="37" t="s">
+      <c r="AQ81" s="192"/>
+      <c r="AR81" s="192"/>
+      <c r="AS81" s="192"/>
+      <c r="AT81" s="192"/>
+      <c r="AU81" s="192"/>
+      <c r="AV81" s="192"/>
+      <c r="AW81" s="193"/>
+      <c r="AX81" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="AY81" s="38"/>
-      <c r="AZ81" s="38"/>
-      <c r="BA81" s="38"/>
-      <c r="BB81" s="38"/>
-      <c r="BC81" s="38"/>
-      <c r="BD81" s="39"/>
-      <c r="BE81" s="40" t="s">
+      <c r="AY81" s="192"/>
+      <c r="AZ81" s="192"/>
+      <c r="BA81" s="192"/>
+      <c r="BB81" s="192"/>
+      <c r="BC81" s="192"/>
+      <c r="BD81" s="193"/>
+      <c r="BE81" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="BF81" s="41"/>
-      <c r="BG81" s="41"/>
-      <c r="BH81" s="41"/>
-      <c r="BI81" s="41"/>
-      <c r="BJ81" s="41"/>
-      <c r="BK81" s="41"/>
-      <c r="BL81" s="41"/>
-      <c r="BM81" s="41"/>
-      <c r="BN81" s="42"/>
-      <c r="BO81" s="33" t="s">
+      <c r="BF81" s="175"/>
+      <c r="BG81" s="175"/>
+      <c r="BH81" s="175"/>
+      <c r="BI81" s="175"/>
+      <c r="BJ81" s="175"/>
+      <c r="BK81" s="175"/>
+      <c r="BL81" s="175"/>
+      <c r="BM81" s="175"/>
+      <c r="BN81" s="176"/>
+      <c r="BO81" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="BP81" s="43"/>
-      <c r="BQ81" s="43"/>
-      <c r="BR81" s="43"/>
-      <c r="BS81" s="43"/>
-      <c r="BT81" s="43"/>
-      <c r="BU81" s="43"/>
-      <c r="BV81" s="43"/>
-      <c r="BW81" s="43"/>
-      <c r="BX81" s="43"/>
-      <c r="BY81" s="43"/>
-      <c r="BZ81" s="43"/>
-      <c r="CA81" s="43"/>
-      <c r="CB81" s="43"/>
-      <c r="CC81" s="43"/>
-      <c r="CD81" s="35" t="s">
+      <c r="BP81" s="178"/>
+      <c r="BQ81" s="178"/>
+      <c r="BR81" s="178"/>
+      <c r="BS81" s="178"/>
+      <c r="BT81" s="178"/>
+      <c r="BU81" s="178"/>
+      <c r="BV81" s="178"/>
+      <c r="BW81" s="178"/>
+      <c r="BX81" s="178"/>
+      <c r="BY81" s="178"/>
+      <c r="BZ81" s="178"/>
+      <c r="CA81" s="178"/>
+      <c r="CB81" s="178"/>
+      <c r="CC81" s="178"/>
+      <c r="CD81" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="CE81" s="31"/>
-      <c r="CF81" s="36"/>
+      <c r="CE81" s="196"/>
+      <c r="CF81" s="197"/>
     </row>
     <row r="82" spans="2:84" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="31" t="s">
+      <c r="C82" s="198"/>
+      <c r="D82" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="E82" s="32"/>
-      <c r="F82" s="31" t="s">
+      <c r="E82" s="198"/>
+      <c r="F82" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="G82" s="32"/>
-      <c r="H82" s="35" t="s">
+      <c r="G82" s="198"/>
+      <c r="H82" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="44">
+      <c r="I82" s="198"/>
+      <c r="J82" s="198"/>
+      <c r="K82" s="199">
         <v>1</v>
       </c>
-      <c r="L82" s="45"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="44">
+      <c r="L82" s="200"/>
+      <c r="M82" s="201"/>
+      <c r="N82" s="199">
         <v>1</v>
       </c>
-      <c r="O82" s="45"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="44">
+      <c r="O82" s="200"/>
+      <c r="P82" s="201"/>
+      <c r="Q82" s="199">
         <v>3</v>
       </c>
-      <c r="R82" s="46"/>
-      <c r="S82" s="33" t="s">
+      <c r="R82" s="201"/>
+      <c r="S82" s="177" t="s">
         <v>182</v>
       </c>
-      <c r="T82" s="33"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="33"/>
-      <c r="W82" s="33"/>
-      <c r="X82" s="33"/>
-      <c r="Y82" s="47" t="s">
+      <c r="T82" s="177"/>
+      <c r="U82" s="177"/>
+      <c r="V82" s="177"/>
+      <c r="W82" s="177"/>
+      <c r="X82" s="177"/>
+      <c r="Y82" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="Z82" s="48"/>
-      <c r="AA82" s="48"/>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="48"/>
-      <c r="AD82" s="48"/>
-      <c r="AE82" s="48"/>
-      <c r="AF82" s="48"/>
-      <c r="AG82" s="48"/>
-      <c r="AH82" s="48"/>
-      <c r="AI82" s="48"/>
-      <c r="AJ82" s="48"/>
-      <c r="AK82" s="48"/>
-      <c r="AL82" s="48"/>
-      <c r="AM82" s="48"/>
-      <c r="AN82" s="48"/>
-      <c r="AO82" s="48"/>
-      <c r="AP82" s="37" t="s">
+      <c r="Z82" s="203"/>
+      <c r="AA82" s="203"/>
+      <c r="AB82" s="203"/>
+      <c r="AC82" s="203"/>
+      <c r="AD82" s="203"/>
+      <c r="AE82" s="203"/>
+      <c r="AF82" s="203"/>
+      <c r="AG82" s="203"/>
+      <c r="AH82" s="203"/>
+      <c r="AI82" s="203"/>
+      <c r="AJ82" s="203"/>
+      <c r="AK82" s="203"/>
+      <c r="AL82" s="203"/>
+      <c r="AM82" s="203"/>
+      <c r="AN82" s="203"/>
+      <c r="AO82" s="203"/>
+      <c r="AP82" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="AQ82" s="38"/>
-      <c r="AR82" s="38"/>
-      <c r="AS82" s="38"/>
-      <c r="AT82" s="38"/>
-      <c r="AU82" s="38"/>
-      <c r="AV82" s="38"/>
-      <c r="AW82" s="39"/>
-      <c r="AX82" s="37" t="s">
+      <c r="AQ82" s="192"/>
+      <c r="AR82" s="192"/>
+      <c r="AS82" s="192"/>
+      <c r="AT82" s="192"/>
+      <c r="AU82" s="192"/>
+      <c r="AV82" s="192"/>
+      <c r="AW82" s="193"/>
+      <c r="AX82" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="AY82" s="38"/>
-      <c r="AZ82" s="38"/>
-      <c r="BA82" s="38"/>
-      <c r="BB82" s="38"/>
-      <c r="BC82" s="38"/>
-      <c r="BD82" s="39"/>
-      <c r="BE82" s="40" t="s">
+      <c r="AY82" s="192"/>
+      <c r="AZ82" s="192"/>
+      <c r="BA82" s="192"/>
+      <c r="BB82" s="192"/>
+      <c r="BC82" s="192"/>
+      <c r="BD82" s="193"/>
+      <c r="BE82" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="BF82" s="41"/>
-      <c r="BG82" s="41"/>
-      <c r="BH82" s="41"/>
-      <c r="BI82" s="41"/>
-      <c r="BJ82" s="41"/>
-      <c r="BK82" s="41"/>
-      <c r="BL82" s="41"/>
-      <c r="BM82" s="41"/>
-      <c r="BN82" s="42"/>
-      <c r="BO82" s="33" t="s">
+      <c r="BF82" s="175"/>
+      <c r="BG82" s="175"/>
+      <c r="BH82" s="175"/>
+      <c r="BI82" s="175"/>
+      <c r="BJ82" s="175"/>
+      <c r="BK82" s="175"/>
+      <c r="BL82" s="175"/>
+      <c r="BM82" s="175"/>
+      <c r="BN82" s="176"/>
+      <c r="BO82" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="BP82" s="43"/>
-      <c r="BQ82" s="43"/>
-      <c r="BR82" s="43"/>
-      <c r="BS82" s="43"/>
-      <c r="BT82" s="43"/>
-      <c r="BU82" s="43"/>
-      <c r="BV82" s="43"/>
-      <c r="BW82" s="43"/>
-      <c r="BX82" s="43"/>
-      <c r="BY82" s="43"/>
-      <c r="BZ82" s="43"/>
-      <c r="CA82" s="43"/>
-      <c r="CB82" s="43"/>
-      <c r="CC82" s="43"/>
-      <c r="CD82" s="35" t="s">
+      <c r="BP82" s="178"/>
+      <c r="BQ82" s="178"/>
+      <c r="BR82" s="178"/>
+      <c r="BS82" s="178"/>
+      <c r="BT82" s="178"/>
+      <c r="BU82" s="178"/>
+      <c r="BV82" s="178"/>
+      <c r="BW82" s="178"/>
+      <c r="BX82" s="178"/>
+      <c r="BY82" s="178"/>
+      <c r="BZ82" s="178"/>
+      <c r="CA82" s="178"/>
+      <c r="CB82" s="178"/>
+      <c r="CC82" s="178"/>
+      <c r="CD82" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="CE82" s="31"/>
-      <c r="CF82" s="36"/>
+      <c r="CE82" s="196"/>
+      <c r="CF82" s="197"/>
     </row>
     <row r="83" spans="2:84" x14ac:dyDescent="0.2">
       <c r="B83" s="23"/>
@@ -26086,7 +26251,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A46:CI73" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A46:CF82" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
